--- a/交易紀錄/信用貸款.xlsx
+++ b/交易紀錄/信用貸款.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="國泰" sheetId="2" r:id="rId1"/>
@@ -15,16 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>支出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>存入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -50,6 +46,14 @@
   </si>
   <si>
     <t>貸款金額</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本金</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -406,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="A1:H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -417,71 +421,81 @@
     <col min="1" max="2" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>8780</v>
+        <v>6830</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
+        <v>1950</v>
+      </c>
+      <c r="E1">
+        <f>SUBTOTAL(9,E3:E500)</f>
         <v>10000</v>
       </c>
-      <c r="E1">
-        <f>D1-C1</f>
+      <c r="F1">
+        <f>E1-C1-D1</f>
         <v>1220</v>
       </c>
-      <c r="F1">
+      <c r="G1">
         <v>5000</v>
       </c>
-      <c r="G1">
-        <f>C1+F1</f>
-        <v>13780</v>
-      </c>
       <c r="H1">
+        <f>D1+G1</f>
+        <v>6950</v>
+      </c>
+      <c r="I1">
         <v>650000</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>41986</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>8780</v>
+        <v>6830</v>
       </c>
       <c r="D3">
+        <v>1950</v>
+      </c>
+      <c r="E3">
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
     </row>
@@ -494,10 +508,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -505,68 +519,75 @@
     <col min="1" max="2" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
         <v>0</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <f>SUBTOTAL(9,E3:E500)</f>
         <v>8000</v>
       </c>
-      <c r="E1">
-        <f>D1-C1</f>
+      <c r="F1">
+        <f>E1-C1-D1</f>
         <v>8000</v>
       </c>
-      <c r="F1">
+      <c r="G1">
         <v>3200</v>
       </c>
-      <c r="G1">
-        <f>C1+F1</f>
+      <c r="H1">
+        <f>D1+G1</f>
         <v>3200</v>
       </c>
-      <c r="H1">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>41986</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>41998</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
+      <c r="E3">
         <v>8000</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
     </row>

--- a/交易紀錄/信用貸款.xlsx
+++ b/交易紀錄/信用貸款.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="國泰" sheetId="2" r:id="rId1"/>
@@ -412,7 +412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -510,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -544,7 +544,7 @@
         <v>3200</v>
       </c>
       <c r="I1">
-        <v>50000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="2" spans="1:9">

--- a/交易紀錄/信用貸款.xlsx
+++ b/交易紀錄/信用貸款.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760" activeTab="1"/>
@@ -10,7 +10,7 @@
     <sheet name="國泰" sheetId="2" r:id="rId1"/>
     <sheet name="合庫" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -122,6 +122,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -133,7 +201,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -511,7 +579,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -522,11 +590,11 @@
     <row r="1" spans="1:9">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>0</v>
+        <v>5577</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>0</v>
+        <v>783</v>
       </c>
       <c r="E1">
         <f>SUBTOTAL(9,E3:E500)</f>
@@ -534,14 +602,14 @@
       </c>
       <c r="F1">
         <f>E1-C1-D1</f>
-        <v>8000</v>
+        <v>1640</v>
       </c>
       <c r="G1">
         <v>3200</v>
       </c>
       <c r="H1">
         <f>D1+G1</f>
-        <v>3200</v>
+        <v>3983</v>
       </c>
       <c r="I1">
         <v>500000</v>
@@ -578,10 +646,16 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>41986</v>
+        <v>41998</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="C3">
+        <v>5577</v>
+      </c>
+      <c r="D3">
+        <v>783</v>
       </c>
       <c r="E3">
         <v>8000</v>

--- a/交易紀錄/信用貸款.xlsx
+++ b/交易紀錄/信用貸款.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="國泰" sheetId="2" r:id="rId1"/>
     <sheet name="合庫" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -122,74 +122,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -201,7 +133,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -480,8 +412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -492,26 +424,26 @@
     <row r="1" spans="1:9">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>6830</v>
+        <v>13616</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>1950</v>
+        <v>3944</v>
       </c>
       <c r="E1">
         <f>SUBTOTAL(9,E3:E500)</f>
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="F1">
         <f>E1-C1-D1</f>
-        <v>1220</v>
+        <v>2440</v>
       </c>
       <c r="G1">
         <v>5000</v>
       </c>
       <c r="H1">
         <f>D1+G1</f>
-        <v>6950</v>
+        <v>8944</v>
       </c>
       <c r="I1">
         <v>650000</v>
@@ -566,6 +498,15 @@
     <row r="4" spans="1:9">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
+      <c r="C4">
+        <v>6786</v>
+      </c>
+      <c r="D4">
+        <v>1994</v>
+      </c>
+      <c r="E4">
+        <v>10000</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -578,7 +519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>

--- a/交易紀錄/信用貸款.xlsx
+++ b/交易紀錄/信用貸款.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,6 +54,10 @@
   </si>
   <si>
     <t>本金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>貸款餘額</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -410,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -421,7 +425,7 @@
     <col min="1" max="2" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
         <v>13616</v>
@@ -448,8 +452,12 @@
       <c r="I1">
         <v>650000</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1">
+        <f>I1-C1</f>
+        <v>636384</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -477,8 +485,11 @@
       <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>41986</v>
       </c>
@@ -495,9 +506,13 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1">
+        <v>42017</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C4">
         <v>6786</v>
       </c>
@@ -517,10 +532,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -528,7 +543,7 @@
     <col min="1" max="2" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
         <v>5577</v>
@@ -555,8 +570,12 @@
       <c r="I1">
         <v>500000</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1">
+        <f>I1-C1</f>
+        <v>494423</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -584,8 +603,11 @@
       <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>41998</v>
       </c>
@@ -602,7 +624,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
     </row>

--- a/交易紀錄/信用貸款.xlsx
+++ b/交易紀錄/信用貸款.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -417,7 +417,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -535,7 +535,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -546,33 +546,33 @@
     <row r="1" spans="1:10">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>5577</v>
+        <v>11162</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>783</v>
+        <v>1558</v>
       </c>
       <c r="E1">
         <f>SUBTOTAL(9,E3:E500)</f>
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="F1">
         <f>E1-C1-D1</f>
-        <v>1640</v>
+        <v>3280</v>
       </c>
       <c r="G1">
         <v>3200</v>
       </c>
       <c r="H1">
         <f>D1+G1</f>
-        <v>3983</v>
+        <v>4758</v>
       </c>
       <c r="I1">
         <v>500000</v>
       </c>
       <c r="J1">
         <f>I1-C1</f>
-        <v>494423</v>
+        <v>488838</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -625,8 +625,21 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="A4" s="1">
+        <v>42030</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>5585</v>
+      </c>
+      <c r="D4">
+        <v>775</v>
+      </c>
+      <c r="E4">
+        <v>8000</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/交易紀錄/信用貸款.xlsx
+++ b/交易紀錄/信用貸款.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -414,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -428,33 +428,33 @@
     <row r="1" spans="1:10">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>13616</v>
+        <v>20423</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>3944</v>
+        <v>5917</v>
       </c>
       <c r="E1">
         <f>SUBTOTAL(9,E3:E500)</f>
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="F1">
         <f>E1-C1-D1</f>
-        <v>2440</v>
+        <v>3660</v>
       </c>
       <c r="G1">
         <v>5000</v>
       </c>
       <c r="H1">
         <f>D1+G1</f>
-        <v>8944</v>
+        <v>10917</v>
       </c>
       <c r="I1">
         <v>650000</v>
       </c>
       <c r="J1">
         <f>I1-C1</f>
-        <v>636384</v>
+        <v>629577</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -520,6 +520,23 @@
         <v>1994</v>
       </c>
       <c r="E4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1">
+        <v>42048</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>6807</v>
+      </c>
+      <c r="D5">
+        <v>1973</v>
+      </c>
+      <c r="E5">
         <v>10000</v>
       </c>
     </row>

--- a/交易紀錄/信用貸款.xlsx
+++ b/交易紀錄/信用貸款.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="國泰" sheetId="2" r:id="rId1"/>
     <sheet name="合庫" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,6 +126,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -137,7 +205,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -416,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -549,10 +617,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -563,33 +631,33 @@
     <row r="1" spans="1:10">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>11162</v>
+        <v>16756</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>1558</v>
+        <v>2324</v>
       </c>
       <c r="E1">
         <f>SUBTOTAL(9,E3:E500)</f>
-        <v>16000</v>
+        <v>24000</v>
       </c>
       <c r="F1">
         <f>E1-C1-D1</f>
-        <v>3280</v>
+        <v>4920</v>
       </c>
       <c r="G1">
         <v>3200</v>
       </c>
       <c r="H1">
         <f>D1+G1</f>
-        <v>4758</v>
+        <v>5524</v>
       </c>
       <c r="I1">
         <v>500000</v>
       </c>
       <c r="J1">
         <f>I1-C1</f>
-        <v>488838</v>
+        <v>483244</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -655,6 +723,23 @@
         <v>775</v>
       </c>
       <c r="E4">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1">
+        <v>42060</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>5594</v>
+      </c>
+      <c r="D5">
+        <v>766</v>
+      </c>
+      <c r="E5">
         <v>8000</v>
       </c>
     </row>

--- a/交易紀錄/信用貸款.xlsx
+++ b/交易紀錄/信用貸款.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="國泰" sheetId="2" r:id="rId1"/>
     <sheet name="合庫" sheetId="4" r:id="rId2"/>
+    <sheet name="匯豐" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="11">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,74 +127,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -205,7 +138,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -619,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -747,4 +680,106 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="C1">
+        <f>SUBTOTAL(9,C3:C500)</f>
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <f>SUBTOTAL(9,D3:D500)</f>
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <f>SUBTOTAL(9,E3:E500)</f>
+        <v>8000</v>
+      </c>
+      <c r="F1">
+        <f>E1-C1-D1</f>
+        <v>8000</v>
+      </c>
+      <c r="G1">
+        <v>4530</v>
+      </c>
+      <c r="H1">
+        <f>D1+G1</f>
+        <v>4530</v>
+      </c>
+      <c r="I1">
+        <v>500000</v>
+      </c>
+      <c r="J1">
+        <f>I1-C1</f>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1">
+        <v>42073</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/交易紀錄/信用貸款.xlsx
+++ b/交易紀錄/信用貸款.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="國泰" sheetId="2" r:id="rId1"/>
     <sheet name="合庫" sheetId="4" r:id="rId2"/>
     <sheet name="匯豐" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="11">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -415,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -429,33 +429,33 @@
     <row r="1" spans="1:10">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>20423</v>
+        <v>27440</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>5917</v>
+        <v>7680</v>
       </c>
       <c r="E1">
         <f>SUBTOTAL(9,E3:E500)</f>
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="F1">
         <f>E1-C1-D1</f>
-        <v>3660</v>
+        <v>4880</v>
       </c>
       <c r="G1">
         <v>5000</v>
       </c>
       <c r="H1">
         <f>D1+G1</f>
-        <v>10917</v>
+        <v>12680</v>
       </c>
       <c r="I1">
         <v>650000</v>
       </c>
       <c r="J1">
         <f>I1-C1</f>
-        <v>629577</v>
+        <v>622560</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -538,6 +538,23 @@
         <v>1973</v>
       </c>
       <c r="E5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1">
+        <v>42076</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>7017</v>
+      </c>
+      <c r="D6">
+        <v>1763</v>
+      </c>
+      <c r="E6">
         <v>10000</v>
       </c>
     </row>
@@ -686,7 +703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>

--- a/交易紀錄/信用貸款.xlsx
+++ b/交易紀錄/信用貸款.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="國泰" sheetId="2" r:id="rId1"/>
@@ -417,7 +417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -703,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -778,7 +778,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1">
-        <v>42073</v>
+        <v>42104</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>

--- a/交易紀錄/信用貸款.xlsx
+++ b/交易紀錄/信用貸款.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="11">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,6 +127,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -138,7 +206,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -418,7 +486,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -567,10 +635,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -581,33 +649,33 @@
     <row r="1" spans="1:10">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>16756</v>
+        <v>22209</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>2324</v>
+        <v>3411</v>
       </c>
       <c r="E1">
         <f>SUBTOTAL(9,E3:E500)</f>
-        <v>24000</v>
+        <v>32000</v>
       </c>
       <c r="F1">
         <f>E1-C1-D1</f>
-        <v>4920</v>
+        <v>6380</v>
       </c>
       <c r="G1">
         <v>3200</v>
       </c>
       <c r="H1">
         <f>D1+G1</f>
-        <v>5524</v>
+        <v>6611</v>
       </c>
       <c r="I1">
         <v>500000</v>
       </c>
       <c r="J1">
         <f>I1-C1</f>
-        <v>483244</v>
+        <v>477791</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -690,6 +758,23 @@
         <v>766</v>
       </c>
       <c r="E5">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1">
+        <v>42088</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>5453</v>
+      </c>
+      <c r="D6">
+        <v>1087</v>
+      </c>
+      <c r="E6">
         <v>8000</v>
       </c>
     </row>
@@ -704,7 +789,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/交易紀錄/信用貸款.xlsx
+++ b/交易紀錄/信用貸款.xlsx
@@ -11,12 +11,12 @@
     <sheet name="合庫" sheetId="4" r:id="rId2"/>
     <sheet name="匯豐" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="12">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,6 +59,10 @@
   </si>
   <si>
     <t>貸款餘額</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -127,74 +131,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -206,7 +142,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -483,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -494,39 +430,39 @@
     <col min="1" max="2" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>27440</v>
+        <v>34290</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>7680</v>
-      </c>
-      <c r="E1">
-        <f>SUBTOTAL(9,E3:E500)</f>
-        <v>40000</v>
+        <v>9610</v>
       </c>
       <c r="F1">
-        <f>E1-C1-D1</f>
-        <v>4880</v>
+        <f>SUBTOTAL(9,F3:F500)</f>
+        <v>50000</v>
       </c>
       <c r="G1">
+        <f>F1-C1-D1</f>
+        <v>6100</v>
+      </c>
+      <c r="H1">
         <v>5000</v>
       </c>
-      <c r="H1">
-        <f>D1+G1</f>
-        <v>12680</v>
-      </c>
       <c r="I1">
+        <f>D1+H1</f>
+        <v>14610</v>
+      </c>
+      <c r="J1">
         <v>650000</v>
       </c>
-      <c r="J1">
-        <f>I1-C1</f>
-        <v>622560</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1">
+        <f>J1-C1</f>
+        <v>615710</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -540,25 +476,28 @@
         <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>41986</v>
       </c>
@@ -572,10 +511,13 @@
         <v>1950</v>
       </c>
       <c r="E3">
+        <v>3.65</v>
+      </c>
+      <c r="F3">
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>42017</v>
       </c>
@@ -589,10 +531,13 @@
         <v>1994</v>
       </c>
       <c r="E4">
+        <v>3.65</v>
+      </c>
+      <c r="F4">
         <v>10000</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>42048</v>
       </c>
@@ -606,10 +551,13 @@
         <v>1973</v>
       </c>
       <c r="E5">
+        <v>3.65</v>
+      </c>
+      <c r="F5">
         <v>10000</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>42076</v>
       </c>
@@ -623,6 +571,29 @@
         <v>1763</v>
       </c>
       <c r="E6">
+        <v>3.65</v>
+      </c>
+      <c r="F6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
+        <v>42107</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>6850</v>
+      </c>
+      <c r="D7">
+        <v>1930</v>
+      </c>
+      <c r="E7">
+        <v>3.65</v>
+      </c>
+      <c r="F7">
         <v>10000</v>
       </c>
     </row>
@@ -635,10 +606,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -646,7 +617,7 @@
     <col min="1" max="2" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
         <v>22209</v>
@@ -655,30 +626,30 @@
         <f>SUBTOTAL(9,D3:D500)</f>
         <v>3411</v>
       </c>
-      <c r="E1">
-        <f>SUBTOTAL(9,E3:E500)</f>
+      <c r="F1">
+        <f>SUBTOTAL(9,F3:F500)</f>
         <v>32000</v>
       </c>
-      <c r="F1">
-        <f>E1-C1-D1</f>
+      <c r="G1">
+        <f>F1-C1-D1</f>
         <v>6380</v>
       </c>
-      <c r="G1">
+      <c r="H1">
         <v>3200</v>
       </c>
-      <c r="H1">
-        <f>D1+G1</f>
+      <c r="I1">
+        <f>D1+H1</f>
         <v>6611</v>
       </c>
-      <c r="I1">
+      <c r="J1">
         <v>500000</v>
       </c>
-      <c r="J1">
-        <f>I1-C1</f>
+      <c r="K1">
+        <f>J1-C1</f>
         <v>477791</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -692,25 +663,28 @@
         <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>41998</v>
       </c>
@@ -723,11 +697,11 @@
       <c r="D3">
         <v>783</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>8000</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>42030</v>
       </c>
@@ -740,11 +714,11 @@
       <c r="D4">
         <v>775</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>8000</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>42060</v>
       </c>
@@ -757,11 +731,11 @@
       <c r="D5">
         <v>766</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>8000</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>42088</v>
       </c>
@@ -774,7 +748,7 @@
       <c r="D6">
         <v>1087</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>8000</v>
       </c>
     </row>
@@ -786,10 +760,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -797,39 +771,39 @@
     <col min="1" max="1" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>0</v>
+        <v>5618</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>0</v>
-      </c>
-      <c r="E1">
-        <f>SUBTOTAL(9,E3:E500)</f>
+        <v>692</v>
+      </c>
+      <c r="F1">
+        <f>SUBTOTAL(9,F3:F500)</f>
         <v>8000</v>
       </c>
-      <c r="F1">
-        <f>E1-C1-D1</f>
-        <v>8000</v>
-      </c>
       <c r="G1">
+        <f>F1-C1-D1</f>
+        <v>1690</v>
+      </c>
+      <c r="H1">
         <v>4530</v>
       </c>
-      <c r="H1">
-        <f>D1+G1</f>
-        <v>4530</v>
-      </c>
       <c r="I1">
+        <f>D1+H1</f>
+        <v>5222</v>
+      </c>
+      <c r="J1">
         <v>500000</v>
       </c>
-      <c r="J1">
-        <f>I1-C1</f>
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1">
+        <f>J1-C1</f>
+        <v>494382</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -843,40 +817,52 @@
         <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>42104</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C3">
+        <v>5618</v>
+      </c>
+      <c r="D3">
+        <v>692</v>
+      </c>
       <c r="E3">
+        <v>1.66</v>
+      </c>
+      <c r="F3">
         <v>8000</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
     </row>

--- a/交易紀錄/信用貸款.xlsx
+++ b/交易紀錄/信用貸款.xlsx
@@ -11,7 +11,7 @@
     <sheet name="合庫" sheetId="4" r:id="rId2"/>
     <sheet name="匯豐" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -131,6 +131,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -142,7 +210,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -422,7 +490,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -609,7 +677,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -697,6 +765,9 @@
       <c r="D3">
         <v>783</v>
       </c>
+      <c r="E3">
+        <v>1.88</v>
+      </c>
       <c r="F3">
         <v>8000</v>
       </c>
@@ -714,6 +785,9 @@
       <c r="D4">
         <v>775</v>
       </c>
+      <c r="E4">
+        <v>1.88</v>
+      </c>
       <c r="F4">
         <v>8000</v>
       </c>
@@ -731,6 +805,9 @@
       <c r="D5">
         <v>766</v>
       </c>
+      <c r="E5">
+        <v>1.88</v>
+      </c>
       <c r="F5">
         <v>8000</v>
       </c>
@@ -747,6 +824,9 @@
       </c>
       <c r="D6">
         <v>1087</v>
+      </c>
+      <c r="E6">
+        <v>2.7</v>
       </c>
       <c r="F6">
         <v>8000</v>

--- a/交易紀錄/信用貸款.xlsx
+++ b/交易紀錄/信用貸款.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="12">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -674,10 +674,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -688,33 +688,33 @@
     <row r="1" spans="1:11">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>22209</v>
+        <v>27674</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>3411</v>
+        <v>4486</v>
       </c>
       <c r="F1">
         <f>SUBTOTAL(9,F3:F500)</f>
-        <v>32000</v>
+        <v>40000</v>
       </c>
       <c r="G1">
         <f>F1-C1-D1</f>
-        <v>6380</v>
+        <v>7840</v>
       </c>
       <c r="H1">
         <v>3200</v>
       </c>
       <c r="I1">
         <f>D1+H1</f>
-        <v>6611</v>
+        <v>7686</v>
       </c>
       <c r="J1">
         <v>500000</v>
       </c>
       <c r="K1">
         <f>J1-C1</f>
-        <v>477791</v>
+        <v>472326</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -831,6 +831,29 @@
       <c r="F6">
         <v>8000</v>
       </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
+        <v>42121</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>5465</v>
+      </c>
+      <c r="D7">
+        <v>1075</v>
+      </c>
+      <c r="E7">
+        <v>2.7</v>
+      </c>
+      <c r="F7">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="B8" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/交易紀錄/信用貸款.xlsx
+++ b/交易紀錄/信用貸款.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="12">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,74 +131,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -210,7 +142,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -487,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C8" sqref="C8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -501,33 +433,33 @@
     <row r="1" spans="1:11">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>34290</v>
+        <v>41223</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>9610</v>
+        <v>11457</v>
       </c>
       <c r="F1">
         <f>SUBTOTAL(9,F3:F500)</f>
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="G1">
         <f>F1-C1-D1</f>
-        <v>6100</v>
+        <v>7320</v>
       </c>
       <c r="H1">
         <v>5000</v>
       </c>
       <c r="I1">
         <f>D1+H1</f>
-        <v>14610</v>
+        <v>16457</v>
       </c>
       <c r="J1">
         <v>650000</v>
       </c>
       <c r="K1">
         <f>J1-C1</f>
-        <v>615710</v>
+        <v>608777</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -662,6 +594,26 @@
         <v>3.65</v>
       </c>
       <c r="F7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>42137</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>6933</v>
+      </c>
+      <c r="D8">
+        <v>1847</v>
+      </c>
+      <c r="E8">
+        <v>3.65</v>
+      </c>
+      <c r="F8">
         <v>10000</v>
       </c>
     </row>
@@ -866,7 +818,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -877,11 +829,11 @@
     <row r="1" spans="1:11">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>5618</v>
+        <v>5605</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>692</v>
+        <v>705</v>
       </c>
       <c r="F1">
         <f>SUBTOTAL(9,F3:F500)</f>
@@ -896,14 +848,14 @@
       </c>
       <c r="I1">
         <f>D1+H1</f>
-        <v>5222</v>
+        <v>5235</v>
       </c>
       <c r="J1">
         <v>500000</v>
       </c>
       <c r="K1">
         <f>J1-C1</f>
-        <v>494382</v>
+        <v>494395</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -949,10 +901,10 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>5618</v>
+        <v>5605</v>
       </c>
       <c r="D3">
-        <v>692</v>
+        <v>705</v>
       </c>
       <c r="E3">
         <v>1.66</v>

--- a/交易紀錄/信用貸款.xlsx
+++ b/交易紀錄/信用貸款.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="12">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,6 +131,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -142,7 +210,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -422,7 +490,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:D8"/>
+      <selection activeCell="C7" sqref="C7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -629,7 +697,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -640,33 +708,33 @@
     <row r="1" spans="1:11">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>27674</v>
+        <v>33151</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>4486</v>
+        <v>5549</v>
       </c>
       <c r="F1">
         <f>SUBTOTAL(9,F3:F500)</f>
-        <v>40000</v>
+        <v>48000</v>
       </c>
       <c r="G1">
         <f>F1-C1-D1</f>
-        <v>7840</v>
+        <v>9300</v>
       </c>
       <c r="H1">
         <v>3200</v>
       </c>
       <c r="I1">
         <f>D1+H1</f>
-        <v>7686</v>
+        <v>8749</v>
       </c>
       <c r="J1">
         <v>500000</v>
       </c>
       <c r="K1">
         <f>J1-C1</f>
-        <v>472326</v>
+        <v>466849</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -805,7 +873,24 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="B8" s="1"/>
+      <c r="A8" s="1">
+        <v>42149</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>5477</v>
+      </c>
+      <c r="D8">
+        <v>1063</v>
+      </c>
+      <c r="E8">
+        <v>2.7</v>
+      </c>
+      <c r="F8">
+        <v>8000</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -818,7 +903,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -914,8 +999,12 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="A4" s="1">
+        <v>42134</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1"/>

--- a/交易紀錄/信用貸款.xlsx
+++ b/交易紀錄/信用貸款.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="12">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -490,7 +490,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:D7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -903,7 +903,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -914,33 +914,33 @@
     <row r="1" spans="1:11">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>5605</v>
+        <v>11218</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>705</v>
+        <v>1402</v>
       </c>
       <c r="F1">
         <f>SUBTOTAL(9,F3:F500)</f>
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="G1">
         <f>F1-C1-D1</f>
-        <v>1690</v>
+        <v>3380</v>
       </c>
       <c r="H1">
         <v>4530</v>
       </c>
       <c r="I1">
         <f>D1+H1</f>
-        <v>5235</v>
+        <v>5932</v>
       </c>
       <c r="J1">
         <v>500000</v>
       </c>
       <c r="K1">
         <f>J1-C1</f>
-        <v>494395</v>
+        <v>488782</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1005,10 +1005,26 @@
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C4">
+        <v>5613</v>
+      </c>
+      <c r="D4">
+        <v>697</v>
+      </c>
+      <c r="E4">
+        <v>1.66</v>
+      </c>
+      <c r="F4">
+        <v>8000</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="A5" s="1">
+        <v>42165</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/交易紀錄/信用貸款.xlsx
+++ b/交易紀錄/信用貸款.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="國泰" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="12">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,74 +131,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -210,7 +142,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -487,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -501,33 +433,33 @@
     <row r="1" spans="1:11">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>41223</v>
+        <v>48116</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>11457</v>
+        <v>13344</v>
       </c>
       <c r="F1">
         <f>SUBTOTAL(9,F3:F500)</f>
-        <v>60000</v>
+        <v>70000</v>
       </c>
       <c r="G1">
         <f>F1-C1-D1</f>
-        <v>7320</v>
+        <v>8540</v>
       </c>
       <c r="H1">
         <v>5000</v>
       </c>
       <c r="I1">
         <f>D1+H1</f>
-        <v>16457</v>
+        <v>18344</v>
       </c>
       <c r="J1">
         <v>650000</v>
       </c>
       <c r="K1">
         <f>J1-C1</f>
-        <v>608777</v>
+        <v>601884</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -682,6 +614,26 @@
         <v>3.65</v>
       </c>
       <c r="F8">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>42170</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>6893</v>
+      </c>
+      <c r="D9">
+        <v>1887</v>
+      </c>
+      <c r="E9">
+        <v>3.65</v>
+      </c>
+      <c r="F9">
         <v>10000</v>
       </c>
     </row>
@@ -902,7 +854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>

--- a/交易紀錄/信用貸款.xlsx
+++ b/交易紀錄/信用貸款.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="國泰" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="12">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,6 +131,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -142,7 +210,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -421,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -646,10 +714,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -660,33 +728,33 @@
     <row r="1" spans="1:11">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>33151</v>
+        <v>38546</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>5549</v>
+        <v>6794</v>
       </c>
       <c r="F1">
         <f>SUBTOTAL(9,F3:F500)</f>
-        <v>48000</v>
+        <v>56000</v>
       </c>
       <c r="G1">
         <f>F1-C1-D1</f>
-        <v>9300</v>
+        <v>10660</v>
       </c>
       <c r="H1">
         <v>3200</v>
       </c>
       <c r="I1">
         <f>D1+H1</f>
-        <v>8749</v>
+        <v>9994</v>
       </c>
       <c r="J1">
         <v>500000</v>
       </c>
       <c r="K1">
         <f>J1-C1</f>
-        <v>466849</v>
+        <v>461454</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -841,6 +909,26 @@
         <v>2.7</v>
       </c>
       <c r="F8">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>42180</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>5395</v>
+      </c>
+      <c r="D9">
+        <v>1245</v>
+      </c>
+      <c r="E9">
+        <v>3.2</v>
+      </c>
+      <c r="F9">
         <v>8000</v>
       </c>
     </row>
@@ -854,7 +942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>

--- a/交易紀錄/信用貸款.xlsx
+++ b/交易紀錄/信用貸款.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="國泰" sheetId="2" r:id="rId1"/>
     <sheet name="合庫" sheetId="4" r:id="rId2"/>
     <sheet name="匯豐" sheetId="5" r:id="rId3"/>
+    <sheet name="富邦" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="13">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,6 +64,10 @@
   </si>
   <si>
     <t>利率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>結清</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -131,74 +136,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -210,7 +147,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -489,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -714,10 +651,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -728,33 +665,33 @@
     <row r="1" spans="1:11">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>38546</v>
+        <v>500000</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>6794</v>
+        <v>6996</v>
       </c>
       <c r="F1">
         <f>SUBTOTAL(9,F3:F500)</f>
-        <v>56000</v>
+        <v>521000</v>
       </c>
       <c r="G1">
         <f>F1-C1-D1</f>
-        <v>10660</v>
+        <v>14004</v>
       </c>
       <c r="H1">
         <v>3200</v>
       </c>
       <c r="I1">
         <f>D1+H1</f>
-        <v>9994</v>
+        <v>10196</v>
       </c>
       <c r="J1">
         <v>500000</v>
       </c>
       <c r="K1">
         <f>J1-C1</f>
-        <v>461454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -930,6 +867,26 @@
       </c>
       <c r="F9">
         <v>8000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>461454</v>
+      </c>
+      <c r="D10">
+        <v>202</v>
+      </c>
+      <c r="E10">
+        <v>3.2</v>
+      </c>
+      <c r="F10">
+        <v>465000</v>
       </c>
     </row>
   </sheetData>
@@ -942,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -962,11 +919,11 @@
       </c>
       <c r="F1">
         <f>SUBTOTAL(9,F3:F500)</f>
-        <v>16000</v>
+        <v>24000</v>
       </c>
       <c r="G1">
         <f>F1-C1-D1</f>
-        <v>3380</v>
+        <v>11380</v>
       </c>
       <c r="H1">
         <v>4530</v>
@@ -1065,6 +1022,86 @@
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="E5">
+        <v>1.66</v>
+      </c>
+      <c r="F5">
+        <v>8000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="H1">
+        <v>5000</v>
+      </c>
+      <c r="J1">
+        <v>1900000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="E3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/交易紀錄/信用貸款.xlsx
+++ b/交易紀錄/信用貸款.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="13">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -424,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -438,15 +438,15 @@
     <row r="1" spans="1:11">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>48116</v>
+        <v>650000</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>13344</v>
+        <v>14427</v>
       </c>
       <c r="F1">
         <f>SUBTOTAL(9,F3:F500)</f>
-        <v>70000</v>
+        <v>672967</v>
       </c>
       <c r="G1">
         <f>F1-C1-D1</f>
@@ -457,14 +457,14 @@
       </c>
       <c r="I1">
         <f>D1+H1</f>
-        <v>18344</v>
+        <v>19427</v>
       </c>
       <c r="J1">
         <v>650000</v>
       </c>
       <c r="K1">
         <f>J1-C1</f>
-        <v>601884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -640,6 +640,27 @@
       </c>
       <c r="F9">
         <v>10000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>42186</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>601884</v>
+      </c>
+      <c r="D10">
+        <f>F10-C10</f>
+        <v>1083</v>
+      </c>
+      <c r="E10">
+        <v>3.65</v>
+      </c>
+      <c r="F10">
+        <v>602967</v>
       </c>
     </row>
   </sheetData>
@@ -654,7 +675,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -900,7 +921,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="K9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1040,16 +1061,43 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11">
+      <c r="C1">
+        <f>SUBTOTAL(9,C3:C500)</f>
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <f>SUBTOTAL(9,D3:D500)</f>
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <f>SUBTOTAL(9,F3:F500)</f>
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <f>F1-C1-D1</f>
+        <v>0</v>
+      </c>
       <c r="H1">
-        <v>5000</v>
+        <v>5060</v>
+      </c>
+      <c r="I1">
+        <f>D1+H1</f>
+        <v>5060</v>
       </c>
       <c r="J1">
+        <v>1900000</v>
+      </c>
+      <c r="K1">
+        <f>J1-C1</f>
         <v>1900000</v>
       </c>
     </row>

--- a/交易紀錄/信用貸款.xlsx
+++ b/交易紀錄/信用貸款.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="國泰" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="14">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,6 +68,10 @@
   </si>
   <si>
     <t>結清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代書費</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -136,6 +140,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -147,7 +219,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -426,8 +498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -675,7 +747,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -921,7 +993,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="A1:XFD1048576"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -932,11 +1004,11 @@
     <row r="1" spans="1:11">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>11218</v>
+        <v>16861</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>1402</v>
+        <v>2069</v>
       </c>
       <c r="F1">
         <f>SUBTOTAL(9,F3:F500)</f>
@@ -944,21 +1016,21 @@
       </c>
       <c r="G1">
         <f>F1-C1-D1</f>
-        <v>11380</v>
+        <v>5070</v>
       </c>
       <c r="H1">
         <v>4530</v>
       </c>
       <c r="I1">
         <f>D1+H1</f>
-        <v>5932</v>
+        <v>6599</v>
       </c>
       <c r="J1">
         <v>500000</v>
       </c>
       <c r="K1">
         <f>J1-C1</f>
-        <v>488782</v>
+        <v>483139</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1042,6 +1114,12 @@
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="C5">
+        <v>5643</v>
+      </c>
+      <c r="D5">
+        <v>667</v>
       </c>
       <c r="E5">
         <v>1.66</v>
@@ -1058,10 +1136,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1069,39 +1147,42 @@
     <col min="1" max="1" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>0</v>
+        <v>6110</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>0</v>
+        <v>3958</v>
       </c>
       <c r="F1">
         <f>SUBTOTAL(9,F3:F500)</f>
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G1">
         <f>F1-C1-D1</f>
-        <v>0</v>
+        <v>4932</v>
       </c>
       <c r="H1">
         <v>5060</v>
       </c>
       <c r="I1">
-        <f>D1+H1</f>
-        <v>5060</v>
+        <v>5660</v>
       </c>
       <c r="J1">
+        <f>D1+H1+I1</f>
+        <v>14678</v>
+      </c>
+      <c r="K1">
         <v>1900000</v>
       </c>
-      <c r="K1">
-        <f>J1-C1</f>
-        <v>1900000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1">
+        <f>K1-C1</f>
+        <v>1893890</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1127,27 +1208,43 @@
         <v>4</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1">
+        <v>42216</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>6110</v>
+      </c>
+      <c r="D3">
+        <v>3958</v>
+      </c>
       <c r="E3">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="F3">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
     </row>

--- a/交易紀錄/信用貸款.xlsx
+++ b/交易紀錄/信用貸款.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="國泰" sheetId="2" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="匯豐" sheetId="5" r:id="rId3"/>
     <sheet name="富邦" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="14">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -990,10 +990,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1004,33 +1004,33 @@
     <row r="1" spans="1:11">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>16861</v>
+        <v>22110</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>2069</v>
+        <v>3610</v>
       </c>
       <c r="F1">
         <f>SUBTOTAL(9,F3:F500)</f>
-        <v>24000</v>
+        <v>32000</v>
       </c>
       <c r="G1">
         <f>F1-C1-D1</f>
-        <v>5070</v>
+        <v>6280</v>
       </c>
       <c r="H1">
         <v>4530</v>
       </c>
       <c r="I1">
         <f>D1+H1</f>
-        <v>6599</v>
+        <v>8140</v>
       </c>
       <c r="J1">
         <v>500000</v>
       </c>
       <c r="K1">
         <f>J1-C1</f>
-        <v>483139</v>
+        <v>477890</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1125,6 +1125,26 @@
         <v>1.66</v>
       </c>
       <c r="F5">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
+        <v>42195</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>5249</v>
+      </c>
+      <c r="D6">
+        <v>1541</v>
+      </c>
+      <c r="E6">
+        <v>3.88</v>
+      </c>
+      <c r="F6">
         <v>8000</v>
       </c>
     </row>
@@ -1138,7 +1158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>

--- a/交易紀錄/信用貸款.xlsx
+++ b/交易紀錄/信用貸款.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="國泰" sheetId="2" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="匯豐" sheetId="5" r:id="rId3"/>
     <sheet name="富邦" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725" calcOnSave="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="14">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -992,8 +992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1158,8 +1158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1170,19 +1170,19 @@
     <row r="1" spans="1:12">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>6110</v>
+        <v>12232</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>3958</v>
+        <v>7904</v>
       </c>
       <c r="F1">
         <f>SUBTOTAL(9,F3:F500)</f>
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="G1">
         <f>F1-C1-D1</f>
-        <v>4932</v>
+        <v>9864</v>
       </c>
       <c r="H1">
         <v>5060</v>
@@ -1192,14 +1192,14 @@
       </c>
       <c r="J1">
         <f>D1+H1+I1</f>
-        <v>14678</v>
+        <v>18624</v>
       </c>
       <c r="K1">
         <v>1900000</v>
       </c>
       <c r="L1">
         <f>K1-C1</f>
-        <v>1893890</v>
+        <v>1887768</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1261,8 +1261,24 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="A4" s="1">
+        <v>42248</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>6122</v>
+      </c>
+      <c r="D4">
+        <v>3946</v>
+      </c>
+      <c r="E4">
+        <v>2.5</v>
+      </c>
+      <c r="F4">
+        <v>15000</v>
+      </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1"/>

--- a/交易紀錄/信用貸款.xlsx
+++ b/交易紀錄/信用貸款.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="14">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -990,10 +990,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1004,33 +1004,33 @@
     <row r="1" spans="1:11">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>22110</v>
+        <v>27326</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>3610</v>
+        <v>5184</v>
       </c>
       <c r="F1">
         <f>SUBTOTAL(9,F3:F500)</f>
-        <v>32000</v>
+        <v>40000</v>
       </c>
       <c r="G1">
         <f>F1-C1-D1</f>
-        <v>6280</v>
+        <v>7490</v>
       </c>
       <c r="H1">
         <v>4530</v>
       </c>
       <c r="I1">
         <f>D1+H1</f>
-        <v>8140</v>
+        <v>9714</v>
       </c>
       <c r="J1">
         <v>500000</v>
       </c>
       <c r="K1">
         <f>J1-C1</f>
-        <v>477890</v>
+        <v>472674</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1145,6 +1145,26 @@
         <v>3.88</v>
       </c>
       <c r="F6">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
+        <v>42226</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>5216</v>
+      </c>
+      <c r="D7">
+        <v>1574</v>
+      </c>
+      <c r="E7">
+        <v>3.88</v>
+      </c>
+      <c r="F7">
         <v>8000</v>
       </c>
     </row>
@@ -1159,7 +1179,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/交易紀錄/信用貸款.xlsx
+++ b/交易紀錄/信用貸款.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="14">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -993,7 +993,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1179,7 +1179,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1190,19 +1190,19 @@
     <row r="1" spans="1:12">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>12232</v>
+        <v>18367</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>7904</v>
+        <v>11837</v>
       </c>
       <c r="F1">
         <f>SUBTOTAL(9,F3:F500)</f>
-        <v>30000</v>
+        <v>36000</v>
       </c>
       <c r="G1">
         <f>F1-C1-D1</f>
-        <v>9864</v>
+        <v>5796</v>
       </c>
       <c r="H1">
         <v>5060</v>
@@ -1212,14 +1212,14 @@
       </c>
       <c r="J1">
         <f>D1+H1+I1</f>
-        <v>18624</v>
+        <v>22557</v>
       </c>
       <c r="K1">
         <v>1900000</v>
       </c>
       <c r="L1">
         <f>K1-C1</f>
-        <v>1887768</v>
+        <v>1881633</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1277,7 +1277,7 @@
         <v>2.5</v>
       </c>
       <c r="F3">
-        <v>15000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1297,12 +1297,28 @@
         <v>2.5</v>
       </c>
       <c r="F4">
-        <v>15000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="A5" s="1">
+        <v>42278</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>6135</v>
+      </c>
+      <c r="D5">
+        <v>3933</v>
+      </c>
+      <c r="E5">
+        <v>2.5</v>
+      </c>
+      <c r="F5">
+        <v>12000</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/交易紀錄/信用貸款.xlsx
+++ b/交易紀錄/信用貸款.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="國泰" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="14">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,74 +140,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -219,7 +151,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -499,7 +431,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -990,10 +922,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1004,33 +936,33 @@
     <row r="1" spans="1:11">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>27326</v>
+        <v>32558</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>5184</v>
+        <v>6742</v>
       </c>
       <c r="F1">
         <f>SUBTOTAL(9,F3:F500)</f>
-        <v>40000</v>
+        <v>48000</v>
       </c>
       <c r="G1">
         <f>F1-C1-D1</f>
-        <v>7490</v>
+        <v>8700</v>
       </c>
       <c r="H1">
         <v>4530</v>
       </c>
       <c r="I1">
         <f>D1+H1</f>
-        <v>9714</v>
+        <v>11272</v>
       </c>
       <c r="J1">
         <v>500000</v>
       </c>
       <c r="K1">
         <f>J1-C1</f>
-        <v>472674</v>
+        <v>467442</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1165,6 +1097,26 @@
         <v>3.88</v>
       </c>
       <c r="F7">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>42257</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>5232</v>
+      </c>
+      <c r="D8">
+        <v>1558</v>
+      </c>
+      <c r="E8">
+        <v>3.88</v>
+      </c>
+      <c r="F8">
         <v>8000</v>
       </c>
     </row>
@@ -1178,8 +1130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/交易紀錄/信用貸款.xlsx
+++ b/交易紀錄/信用貸款.xlsx
@@ -12,12 +12,12 @@
     <sheet name="匯豐" sheetId="5" r:id="rId3"/>
     <sheet name="富邦" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="14">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,6 +140,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -151,7 +219,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -431,7 +499,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -922,10 +990,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -936,33 +1004,33 @@
     <row r="1" spans="1:11">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>32558</v>
+        <v>37765</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>6742</v>
+        <v>8325</v>
       </c>
       <c r="F1">
         <f>SUBTOTAL(9,F3:F500)</f>
-        <v>48000</v>
+        <v>56000</v>
       </c>
       <c r="G1">
         <f>F1-C1-D1</f>
-        <v>8700</v>
+        <v>9910</v>
       </c>
       <c r="H1">
         <v>4530</v>
       </c>
       <c r="I1">
         <f>D1+H1</f>
-        <v>11272</v>
+        <v>12855</v>
       </c>
       <c r="J1">
         <v>500000</v>
       </c>
       <c r="K1">
         <f>J1-C1</f>
-        <v>467442</v>
+        <v>462235</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1118,6 +1186,51 @@
       </c>
       <c r="F8">
         <v>8000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>42287</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>5207</v>
+      </c>
+      <c r="D9">
+        <v>1583</v>
+      </c>
+      <c r="E9">
+        <v>3.88</v>
+      </c>
+      <c r="F9">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>42318</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
+        <v>42348</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1">
+        <v>42379</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1">
+        <v>42410</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1">
+        <v>42439</v>
       </c>
     </row>
   </sheetData>
@@ -1128,10 +1241,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:D19"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1142,19 +1255,19 @@
     <row r="1" spans="1:12">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>18367</v>
+        <v>24515</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>11837</v>
+        <v>15757</v>
       </c>
       <c r="F1">
         <f>SUBTOTAL(9,F3:F500)</f>
-        <v>36000</v>
+        <v>48000</v>
       </c>
       <c r="G1">
         <f>F1-C1-D1</f>
-        <v>5796</v>
+        <v>7728</v>
       </c>
       <c r="H1">
         <v>5060</v>
@@ -1164,14 +1277,14 @@
       </c>
       <c r="J1">
         <f>D1+H1+I1</f>
-        <v>22557</v>
+        <v>26477</v>
       </c>
       <c r="K1">
         <v>1900000</v>
       </c>
       <c r="L1">
         <f>K1-C1</f>
-        <v>1881633</v>
+        <v>1875485</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1269,6 +1382,26 @@
         <v>2.5</v>
       </c>
       <c r="F5">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1">
+        <v>42310</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>6148</v>
+      </c>
+      <c r="D6">
+        <v>3920</v>
+      </c>
+      <c r="E6">
+        <v>2.5</v>
+      </c>
+      <c r="F6">
         <v>12000</v>
       </c>
     </row>

--- a/交易紀錄/信用貸款.xlsx
+++ b/交易紀錄/信用貸款.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="國泰" sheetId="2" r:id="rId1"/>
     <sheet name="合庫" sheetId="4" r:id="rId2"/>
     <sheet name="匯豐" sheetId="5" r:id="rId3"/>
     <sheet name="富邦" sheetId="6" r:id="rId4"/>
+    <sheet name="遠東" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="14">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,74 +141,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -219,7 +152,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -992,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1244,7 +1177,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1409,4 +1342,149 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="C1">
+        <f>SUBTOTAL(9,C3:C500)</f>
+        <v>12659</v>
+      </c>
+      <c r="D1">
+        <f>SUBTOTAL(9,D3:D500)</f>
+        <v>3197</v>
+      </c>
+      <c r="F1">
+        <f>SUBTOTAL(9,F3:F500)</f>
+        <v>16000</v>
+      </c>
+      <c r="G1">
+        <f>F1-C1-D1</f>
+        <v>144</v>
+      </c>
+      <c r="H1">
+        <v>2015</v>
+      </c>
+      <c r="I1">
+        <f>D1+H1</f>
+        <v>5212</v>
+      </c>
+      <c r="J1">
+        <v>1200000</v>
+      </c>
+      <c r="K1">
+        <f>J1-C1</f>
+        <v>1187341</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>42353</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>12659</v>
+      </c>
+      <c r="D3">
+        <v>3197</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/交易紀錄/信用貸款.xlsx
+++ b/交易紀錄/信用貸款.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="國泰" sheetId="2" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="富邦" sheetId="6" r:id="rId4"/>
     <sheet name="遠東" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="14">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,6 +141,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -152,7 +220,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -925,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -937,33 +1005,33 @@
     <row r="1" spans="1:11">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>37765</v>
+        <v>43134</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>8325</v>
+        <v>9743</v>
       </c>
       <c r="F1">
         <f>SUBTOTAL(9,F3:F500)</f>
-        <v>56000</v>
+        <v>64000</v>
       </c>
       <c r="G1">
         <f>F1-C1-D1</f>
-        <v>9910</v>
+        <v>11123</v>
       </c>
       <c r="H1">
         <v>4530</v>
       </c>
       <c r="I1">
         <f>D1+H1</f>
-        <v>12855</v>
+        <v>14273</v>
       </c>
       <c r="J1">
         <v>500000</v>
       </c>
       <c r="K1">
         <f>J1-C1</f>
-        <v>462235</v>
+        <v>456866</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1144,6 +1212,21 @@
     <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>42318</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>5369</v>
+      </c>
+      <c r="D10">
+        <v>1418</v>
+      </c>
+      <c r="E10">
+        <v>3.86</v>
+      </c>
+      <c r="F10">
+        <v>8000</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1177,7 +1260,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="A1:XFD1048576"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1348,8 +1431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/交易紀錄/信用貸款.xlsx
+++ b/交易紀錄/信用貸款.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="國泰" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="14">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,74 +141,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -220,7 +152,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -993,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1257,10 +1189,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1271,19 +1203,19 @@
     <row r="1" spans="1:12">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>24515</v>
+        <v>30676</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>15757</v>
+        <v>19664</v>
       </c>
       <c r="F1">
         <f>SUBTOTAL(9,F3:F500)</f>
-        <v>48000</v>
+        <v>60000</v>
       </c>
       <c r="G1">
         <f>F1-C1-D1</f>
-        <v>7728</v>
+        <v>9660</v>
       </c>
       <c r="H1">
         <v>5060</v>
@@ -1293,14 +1225,14 @@
       </c>
       <c r="J1">
         <f>D1+H1+I1</f>
-        <v>26477</v>
+        <v>30384</v>
       </c>
       <c r="K1">
         <v>1900000</v>
       </c>
       <c r="L1">
         <f>K1-C1</f>
-        <v>1875485</v>
+        <v>1869324</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1418,6 +1350,26 @@
         <v>2.5</v>
       </c>
       <c r="F6">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1">
+        <v>42339</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>6161</v>
+      </c>
+      <c r="D7">
+        <v>3907</v>
+      </c>
+      <c r="E7">
+        <v>2.5</v>
+      </c>
+      <c r="F7">
         <v>12000</v>
       </c>
     </row>
@@ -1431,8 +1383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1443,11 +1395,11 @@
     <row r="1" spans="1:11">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>12659</v>
+        <v>12718</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>3197</v>
+        <v>3138</v>
       </c>
       <c r="F1">
         <f>SUBTOTAL(9,F3:F500)</f>
@@ -1462,14 +1414,14 @@
       </c>
       <c r="I1">
         <f>D1+H1</f>
-        <v>5212</v>
+        <v>5153</v>
       </c>
       <c r="J1">
         <v>1200000</v>
       </c>
       <c r="K1">
         <f>J1-C1</f>
-        <v>1187341</v>
+        <v>1187282</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1515,10 +1467,10 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>12659</v>
+        <v>12718</v>
       </c>
       <c r="D3">
-        <v>3197</v>
+        <v>3138</v>
       </c>
       <c r="E3">
         <v>3</v>

--- a/交易紀錄/信用貸款.xlsx
+++ b/交易紀錄/信用貸款.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="國泰" sheetId="2" r:id="rId1"/>
@@ -432,7 +432,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -680,7 +680,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -925,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1192,7 +1192,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F3" sqref="F3:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1383,7 +1383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>

--- a/交易紀錄/信用貸款.xlsx
+++ b/交易紀錄/信用貸款.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="國泰" sheetId="2" r:id="rId1"/>
@@ -925,7 +925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -1192,7 +1192,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1383,7 +1383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>

--- a/交易紀錄/信用貸款.xlsx
+++ b/交易紀錄/信用貸款.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="國泰" sheetId="2" r:id="rId1"/>
@@ -925,7 +925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -1383,7 +1383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>

--- a/交易紀錄/信用貸款.xlsx
+++ b/交易紀錄/信用貸款.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="國泰" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="14">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -925,7 +925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -1383,8 +1383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1395,33 +1395,33 @@
     <row r="1" spans="1:11">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>12718</v>
+        <v>25645</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>3138</v>
+        <v>6027</v>
       </c>
       <c r="F1">
         <f>SUBTOTAL(9,F3:F500)</f>
-        <v>16000</v>
+        <v>32000</v>
       </c>
       <c r="G1">
         <f>F1-C1-D1</f>
-        <v>144</v>
+        <v>328</v>
       </c>
       <c r="H1">
         <v>2015</v>
       </c>
       <c r="I1">
         <f>D1+H1</f>
-        <v>5153</v>
+        <v>8042</v>
       </c>
       <c r="J1">
         <v>1200000</v>
       </c>
       <c r="K1">
         <f>J1-C1</f>
-        <v>1187282</v>
+        <v>1174355</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1480,8 +1480,24 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="A4" s="1">
+        <v>42019</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>12927</v>
+      </c>
+      <c r="D4">
+        <v>2889</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>16000</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1"/>

--- a/交易紀錄/信用貸款.xlsx
+++ b/交易紀錄/信用貸款.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="國泰" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="14">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1189,10 +1189,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1203,19 +1203,19 @@
     <row r="1" spans="1:12">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>30676</v>
+        <v>36850</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>19664</v>
+        <v>23558</v>
       </c>
       <c r="F1">
         <f>SUBTOTAL(9,F3:F500)</f>
-        <v>60000</v>
+        <v>72000</v>
       </c>
       <c r="G1">
         <f>F1-C1-D1</f>
-        <v>9660</v>
+        <v>11592</v>
       </c>
       <c r="H1">
         <v>5060</v>
@@ -1225,14 +1225,14 @@
       </c>
       <c r="J1">
         <f>D1+H1+I1</f>
-        <v>30384</v>
+        <v>34278</v>
       </c>
       <c r="K1">
         <v>1900000</v>
       </c>
       <c r="L1">
         <f>K1-C1</f>
-        <v>1869324</v>
+        <v>1863150</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1370,6 +1370,26 @@
         <v>2.5</v>
       </c>
       <c r="F7">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>6174</v>
+      </c>
+      <c r="D8">
+        <v>3894</v>
+      </c>
+      <c r="E8">
+        <v>2.5</v>
+      </c>
+      <c r="F8">
         <v>12000</v>
       </c>
     </row>
@@ -1383,7 +1403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>

--- a/交易紀錄/信用貸款.xlsx
+++ b/交易紀錄/信用貸款.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="國泰" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="14">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -925,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -937,33 +937,33 @@
     <row r="1" spans="1:11">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>43134</v>
+        <v>48472</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>9743</v>
+        <v>11192</v>
       </c>
       <c r="F1">
         <f>SUBTOTAL(9,F3:F500)</f>
-        <v>64000</v>
+        <v>72000</v>
       </c>
       <c r="G1">
         <f>F1-C1-D1</f>
-        <v>11123</v>
+        <v>12336</v>
       </c>
       <c r="H1">
         <v>4530</v>
       </c>
       <c r="I1">
         <f>D1+H1</f>
-        <v>14273</v>
+        <v>15722</v>
       </c>
       <c r="J1">
         <v>500000</v>
       </c>
       <c r="K1">
         <f>J1-C1</f>
-        <v>456866</v>
+        <v>451528</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1164,6 +1164,21 @@
     <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>42348</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>5338</v>
+      </c>
+      <c r="D11">
+        <v>1449</v>
+      </c>
+      <c r="E11">
+        <v>3.86</v>
+      </c>
+      <c r="F11">
+        <v>8000</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1191,8 +1206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/交易紀錄/信用貸款.xlsx
+++ b/交易紀錄/信用貸款.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="14">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -926,7 +926,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -937,33 +937,33 @@
     <row r="1" spans="1:11">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>48472</v>
+        <v>53752</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>11192</v>
+        <v>12699</v>
       </c>
       <c r="F1">
         <f>SUBTOTAL(9,F3:F500)</f>
-        <v>72000</v>
+        <v>80000</v>
       </c>
       <c r="G1">
         <f>F1-C1-D1</f>
-        <v>12336</v>
+        <v>13549</v>
       </c>
       <c r="H1">
         <v>4530</v>
       </c>
       <c r="I1">
         <f>D1+H1</f>
-        <v>15722</v>
+        <v>17229</v>
       </c>
       <c r="J1">
         <v>500000</v>
       </c>
       <c r="K1">
         <f>J1-C1</f>
-        <v>451528</v>
+        <v>446248</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1185,10 +1185,28 @@
       <c r="A12" s="1">
         <v>42379</v>
       </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>5280</v>
+      </c>
+      <c r="D12">
+        <v>1507</v>
+      </c>
+      <c r="E12">
+        <v>3.86</v>
+      </c>
+      <c r="F12">
+        <v>8000</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>42410</v>
+      </c>
+      <c r="E13">
+        <v>3.8</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1204,10 +1222,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1218,19 +1236,19 @@
     <row r="1" spans="1:12">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>36850</v>
+        <v>43089</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>23558</v>
+        <v>27315</v>
       </c>
       <c r="F1">
         <f>SUBTOTAL(9,F3:F500)</f>
-        <v>72000</v>
+        <v>84000</v>
       </c>
       <c r="G1">
         <f>F1-C1-D1</f>
-        <v>11592</v>
+        <v>13596</v>
       </c>
       <c r="H1">
         <v>5060</v>
@@ -1240,14 +1258,14 @@
       </c>
       <c r="J1">
         <f>D1+H1+I1</f>
-        <v>34278</v>
+        <v>38035</v>
       </c>
       <c r="K1">
         <v>1900000</v>
       </c>
       <c r="L1">
         <f>K1-C1</f>
-        <v>1863150</v>
+        <v>1856911</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1405,6 +1423,26 @@
         <v>2.5</v>
       </c>
       <c r="F8">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1">
+        <v>42401</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>6239</v>
+      </c>
+      <c r="D9">
+        <v>3757</v>
+      </c>
+      <c r="E9">
+        <v>2.42</v>
+      </c>
+      <c r="F9">
         <v>12000</v>
       </c>
     </row>

--- a/交易紀錄/信用貸款.xlsx
+++ b/交易紀錄/信用貸款.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="14">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,6 +141,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -152,7 +220,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -432,7 +500,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -926,7 +994,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1222,10 +1290,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1236,19 +1304,19 @@
     <row r="1" spans="1:12">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>43089</v>
+        <v>49340</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>27315</v>
+        <v>31060</v>
       </c>
       <c r="F1">
         <f>SUBTOTAL(9,F3:F500)</f>
-        <v>84000</v>
+        <v>96000</v>
       </c>
       <c r="G1">
         <f>F1-C1-D1</f>
-        <v>13596</v>
+        <v>15600</v>
       </c>
       <c r="H1">
         <v>5060</v>
@@ -1258,14 +1326,14 @@
       </c>
       <c r="J1">
         <f>D1+H1+I1</f>
-        <v>38035</v>
+        <v>41780</v>
       </c>
       <c r="K1">
         <v>1900000</v>
       </c>
       <c r="L1">
         <f>K1-C1</f>
-        <v>1856911</v>
+        <v>1850660</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1443,6 +1511,26 @@
         <v>2.42</v>
       </c>
       <c r="F9">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1">
+        <v>42431</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>6251</v>
+      </c>
+      <c r="D10">
+        <v>3745</v>
+      </c>
+      <c r="E10">
+        <v>2.42</v>
+      </c>
+      <c r="F10">
         <v>12000</v>
       </c>
     </row>
@@ -1457,7 +1545,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/交易紀錄/信用貸款.xlsx
+++ b/交易紀錄/信用貸款.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="國泰" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="14">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +80,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="12"/>
@@ -125,7 +128,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -135,80 +138,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -220,7 +158,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -993,7 +931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -1542,10 +1480,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1553,39 +1491,39 @@
     <col min="1" max="1" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>25645</v>
+        <v>51642</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>6027</v>
+        <v>11662</v>
       </c>
       <c r="F1">
         <f>SUBTOTAL(9,F3:F500)</f>
-        <v>32000</v>
+        <v>64000</v>
       </c>
       <c r="G1">
         <f>F1-C1-D1</f>
-        <v>328</v>
+        <v>696</v>
       </c>
       <c r="H1">
         <v>2015</v>
       </c>
       <c r="I1">
         <f>D1+H1</f>
-        <v>8042</v>
+        <v>13677</v>
       </c>
       <c r="J1">
         <v>1200000</v>
       </c>
       <c r="K1">
         <f>J1-C1</f>
-        <v>1174355</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>1148358</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1620,7 +1558,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>42353</v>
       </c>
@@ -1640,7 +1578,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>42019</v>
       </c>
@@ -1660,40 +1598,124 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:11">
+    <row r="5" spans="1:12">
+      <c r="A5" s="1">
+        <v>42415</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>12958</v>
+      </c>
+      <c r="D5">
+        <v>2858</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1">
+        <v>42444</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>13039</v>
+      </c>
+      <c r="D6">
+        <v>2777</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1"/>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="12:12">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="12:12">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="12:12">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="12:12">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="12:12">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="12:12">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="12:12">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="12:12">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="12:12">
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="12:12">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="12:12">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="12:12">
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="12:12">
+      <c r="L29" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/交易紀錄/信用貸款.xlsx
+++ b/交易紀錄/信用貸款.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="14">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -932,7 +932,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -943,33 +943,33 @@
     <row r="1" spans="1:11">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>53752</v>
+        <v>58905</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>12699</v>
+        <v>14321</v>
       </c>
       <c r="F1">
         <f>SUBTOTAL(9,F3:F500)</f>
-        <v>80000</v>
+        <v>88000</v>
       </c>
       <c r="G1">
         <f>F1-C1-D1</f>
-        <v>13549</v>
+        <v>14774</v>
       </c>
       <c r="H1">
         <v>4530</v>
       </c>
       <c r="I1">
         <f>D1+H1</f>
-        <v>17229</v>
+        <v>18851</v>
       </c>
       <c r="J1">
         <v>500000</v>
       </c>
       <c r="K1">
         <f>J1-C1</f>
-        <v>446248</v>
+        <v>441095</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1211,8 +1211,20 @@
       <c r="A13" s="1">
         <v>42410</v>
       </c>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>5153</v>
+      </c>
+      <c r="D13">
+        <v>1622</v>
+      </c>
       <c r="E13">
         <v>3.8</v>
+      </c>
+      <c r="F13">
+        <v>8000</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1231,7 +1243,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C3" sqref="C3:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1483,7 +1495,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/交易紀錄/信用貸款.xlsx
+++ b/交易紀錄/信用貸款.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="14">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1495,7 +1495,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1506,33 +1506,33 @@
     <row r="1" spans="1:12">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>51642</v>
+        <v>64694</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>11662</v>
+        <v>14389</v>
       </c>
       <c r="F1">
         <f>SUBTOTAL(9,F3:F500)</f>
-        <v>64000</v>
+        <v>80000</v>
       </c>
       <c r="G1">
         <f>F1-C1-D1</f>
-        <v>696</v>
+        <v>917</v>
       </c>
       <c r="H1">
         <v>2015</v>
       </c>
       <c r="I1">
         <f>D1+H1</f>
-        <v>13677</v>
+        <v>16404</v>
       </c>
       <c r="J1">
         <v>1200000</v>
       </c>
       <c r="K1">
         <f>J1-C1</f>
-        <v>1148358</v>
+        <v>1135306</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1651,8 +1651,24 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="1">
+        <v>42475</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>13052</v>
+      </c>
+      <c r="D7">
+        <v>2727</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>16000</v>
+      </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1"/>

--- a/交易紀錄/信用貸款.xlsx
+++ b/交易紀錄/信用貸款.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="14">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,6 +147,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -158,7 +226,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -932,7 +1000,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -943,33 +1011,33 @@
     <row r="1" spans="1:11">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>58905</v>
+        <v>64581</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>14321</v>
+        <v>15420</v>
       </c>
       <c r="F1">
         <f>SUBTOTAL(9,F3:F500)</f>
-        <v>88000</v>
+        <v>96000</v>
       </c>
       <c r="G1">
         <f>F1-C1-D1</f>
-        <v>14774</v>
+        <v>15999</v>
       </c>
       <c r="H1">
         <v>4530</v>
       </c>
       <c r="I1">
         <f>D1+H1</f>
-        <v>18851</v>
+        <v>19950</v>
       </c>
       <c r="J1">
         <v>500000</v>
       </c>
       <c r="K1">
         <f>J1-C1</f>
-        <v>441095</v>
+        <v>435419</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1230,6 +1298,21 @@
     <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>42439</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>5676</v>
+      </c>
+      <c r="D14">
+        <v>1099</v>
+      </c>
+      <c r="E14">
+        <v>3.8</v>
+      </c>
+      <c r="F14">
+        <v>8000</v>
       </c>
     </row>
   </sheetData>
@@ -1240,10 +1323,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C10"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1254,19 +1337,19 @@
     <row r="1" spans="1:12">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>49340</v>
+        <v>55604</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>31060</v>
+        <v>34792</v>
       </c>
       <c r="F1">
         <f>SUBTOTAL(9,F3:F500)</f>
-        <v>96000</v>
+        <v>108000</v>
       </c>
       <c r="G1">
         <f>F1-C1-D1</f>
-        <v>15600</v>
+        <v>17604</v>
       </c>
       <c r="H1">
         <v>5060</v>
@@ -1276,14 +1359,14 @@
       </c>
       <c r="J1">
         <f>D1+H1+I1</f>
-        <v>41780</v>
+        <v>45512</v>
       </c>
       <c r="K1">
         <v>1900000</v>
       </c>
       <c r="L1">
         <f>K1-C1</f>
-        <v>1850660</v>
+        <v>1844396</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1481,6 +1564,26 @@
         <v>2.42</v>
       </c>
       <c r="F10">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>6264</v>
+      </c>
+      <c r="D11">
+        <v>3732</v>
+      </c>
+      <c r="E11">
+        <v>2.42</v>
+      </c>
+      <c r="F11">
         <v>12000</v>
       </c>
     </row>

--- a/交易紀錄/信用貸款.xlsx
+++ b/交易紀錄/信用貸款.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="14">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -997,7 +997,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
@@ -1011,33 +1011,33 @@
     <row r="1" spans="1:11">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>64581</v>
+        <v>69932</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>15420</v>
+        <v>16844</v>
       </c>
       <c r="F1">
         <f>SUBTOTAL(9,F3:F500)</f>
-        <v>96000</v>
+        <v>104000</v>
       </c>
       <c r="G1">
         <f>F1-C1-D1</f>
-        <v>15999</v>
+        <v>17224</v>
       </c>
       <c r="H1">
         <v>4530</v>
       </c>
       <c r="I1">
         <f>D1+H1</f>
-        <v>19950</v>
+        <v>21374</v>
       </c>
       <c r="J1">
         <v>500000</v>
       </c>
       <c r="K1">
         <f>J1-C1</f>
-        <v>435419</v>
+        <v>430068</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1312,6 +1312,26 @@
         <v>3.8</v>
       </c>
       <c r="F14">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1">
+        <v>42470</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>5351</v>
+      </c>
+      <c r="D15">
+        <v>1424</v>
+      </c>
+      <c r="E15">
+        <v>3.8</v>
+      </c>
+      <c r="F15">
         <v>8000</v>
       </c>
     </row>
@@ -1323,10 +1343,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1337,19 +1357,19 @@
     <row r="1" spans="1:12">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>55604</v>
+        <v>61926</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>34792</v>
+        <v>38404</v>
       </c>
       <c r="F1">
         <f>SUBTOTAL(9,F3:F500)</f>
-        <v>108000</v>
+        <v>120000</v>
       </c>
       <c r="G1">
         <f>F1-C1-D1</f>
-        <v>17604</v>
+        <v>19670</v>
       </c>
       <c r="H1">
         <v>5060</v>
@@ -1359,14 +1379,14 @@
       </c>
       <c r="J1">
         <f>D1+H1+I1</f>
-        <v>45512</v>
+        <v>49124</v>
       </c>
       <c r="K1">
         <v>1900000</v>
       </c>
       <c r="L1">
         <f>K1-C1</f>
-        <v>1844396</v>
+        <v>1838074</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1584,6 +1604,26 @@
         <v>2.42</v>
       </c>
       <c r="F11">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1">
+        <v>42494</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>6322</v>
+      </c>
+      <c r="D12">
+        <v>3612</v>
+      </c>
+      <c r="E12">
+        <v>2.35</v>
+      </c>
+      <c r="F12">
         <v>12000</v>
       </c>
     </row>
@@ -1598,7 +1638,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/交易紀錄/信用貸款.xlsx
+++ b/交易紀錄/信用貸款.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="15">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,6 +73,10 @@
   </si>
   <si>
     <t>代書費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>總數</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -147,74 +151,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -226,7 +162,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -997,356 +933,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="C1">
-        <f>SUBTOTAL(9,C3:C500)</f>
-        <v>69932</v>
-      </c>
-      <c r="D1">
-        <f>SUBTOTAL(9,D3:D500)</f>
-        <v>16844</v>
-      </c>
-      <c r="F1">
-        <f>SUBTOTAL(9,F3:F500)</f>
-        <v>104000</v>
-      </c>
-      <c r="G1">
-        <f>F1-C1-D1</f>
-        <v>17224</v>
-      </c>
-      <c r="H1">
-        <v>4530</v>
-      </c>
-      <c r="I1">
-        <f>D1+H1</f>
-        <v>21374</v>
-      </c>
-      <c r="J1">
-        <v>500000</v>
-      </c>
-      <c r="K1">
-        <f>J1-C1</f>
-        <v>430068</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1">
-        <v>42104</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>5605</v>
-      </c>
-      <c r="D3">
-        <v>705</v>
-      </c>
-      <c r="E3">
-        <v>1.66</v>
-      </c>
-      <c r="F3">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1">
-        <v>42134</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>5613</v>
-      </c>
-      <c r="D4">
-        <v>697</v>
-      </c>
-      <c r="E4">
-        <v>1.66</v>
-      </c>
-      <c r="F4">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1">
-        <v>42165</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>5643</v>
-      </c>
-      <c r="D5">
-        <v>667</v>
-      </c>
-      <c r="E5">
-        <v>1.66</v>
-      </c>
-      <c r="F5">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1">
-        <v>42195</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>5249</v>
-      </c>
-      <c r="D6">
-        <v>1541</v>
-      </c>
-      <c r="E6">
-        <v>3.88</v>
-      </c>
-      <c r="F6">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1">
-        <v>42226</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>5216</v>
-      </c>
-      <c r="D7">
-        <v>1574</v>
-      </c>
-      <c r="E7">
-        <v>3.88</v>
-      </c>
-      <c r="F7">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1">
-        <v>42257</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>5232</v>
-      </c>
-      <c r="D8">
-        <v>1558</v>
-      </c>
-      <c r="E8">
-        <v>3.88</v>
-      </c>
-      <c r="F8">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1">
-        <v>42287</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>5207</v>
-      </c>
-      <c r="D9">
-        <v>1583</v>
-      </c>
-      <c r="E9">
-        <v>3.88</v>
-      </c>
-      <c r="F9">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1">
-        <v>42318</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10">
-        <v>5369</v>
-      </c>
-      <c r="D10">
-        <v>1418</v>
-      </c>
-      <c r="E10">
-        <v>3.86</v>
-      </c>
-      <c r="F10">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1">
-        <v>42348</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11">
-        <v>5338</v>
-      </c>
-      <c r="D11">
-        <v>1449</v>
-      </c>
-      <c r="E11">
-        <v>3.86</v>
-      </c>
-      <c r="F11">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1">
-        <v>42379</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12">
-        <v>5280</v>
-      </c>
-      <c r="D12">
-        <v>1507</v>
-      </c>
-      <c r="E12">
-        <v>3.86</v>
-      </c>
-      <c r="F12">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="1">
-        <v>42410</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
-        <v>5153</v>
-      </c>
-      <c r="D13">
-        <v>1622</v>
-      </c>
-      <c r="E13">
-        <v>3.8</v>
-      </c>
-      <c r="F13">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="1">
-        <v>42439</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14">
-        <v>5676</v>
-      </c>
-      <c r="D14">
-        <v>1099</v>
-      </c>
-      <c r="E14">
-        <v>3.8</v>
-      </c>
-      <c r="F14">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="1">
-        <v>42470</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15">
-        <v>5351</v>
-      </c>
-      <c r="D15">
-        <v>1424</v>
-      </c>
-      <c r="E15">
-        <v>3.8</v>
-      </c>
-      <c r="F15">
-        <v>8000</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1357,36 +947,33 @@
     <row r="1" spans="1:12">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>61926</v>
+        <v>75421</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>38404</v>
-      </c>
-      <c r="F1">
-        <f>SUBTOTAL(9,F3:F500)</f>
-        <v>120000</v>
+        <v>18115</v>
       </c>
       <c r="G1">
-        <f>F1-C1-D1</f>
-        <v>19670</v>
+        <f>SUBTOTAL(9,G3:G500)</f>
+        <v>112000</v>
       </c>
       <c r="H1">
-        <v>5060</v>
+        <f>G1-C1-D1</f>
+        <v>18464</v>
       </c>
       <c r="I1">
-        <v>5660</v>
+        <v>4530</v>
       </c>
       <c r="J1">
-        <f>D1+H1+I1</f>
-        <v>49124</v>
+        <f>D1+I1</f>
+        <v>22645</v>
       </c>
       <c r="K1">
-        <v>1900000</v>
+        <v>500000</v>
       </c>
       <c r="L1">
         <f>K1-C1</f>
-        <v>1838074</v>
+        <v>424579</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1403,19 +990,19 @@
         <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>5</v>
@@ -1429,6 +1016,442 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1">
+        <v>42104</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>5605</v>
+      </c>
+      <c r="D3">
+        <v>705</v>
+      </c>
+      <c r="E3">
+        <f>C3+D3</f>
+        <v>6310</v>
+      </c>
+      <c r="F3">
+        <v>1.66</v>
+      </c>
+      <c r="G3">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1">
+        <v>42134</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>5613</v>
+      </c>
+      <c r="D4">
+        <v>697</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E16" si="0">C4+D4</f>
+        <v>6310</v>
+      </c>
+      <c r="F4">
+        <v>1.66</v>
+      </c>
+      <c r="G4">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1">
+        <v>42165</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>5643</v>
+      </c>
+      <c r="D5">
+        <v>667</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>6310</v>
+      </c>
+      <c r="F5">
+        <v>1.66</v>
+      </c>
+      <c r="G5">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1">
+        <v>42195</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>5249</v>
+      </c>
+      <c r="D6">
+        <v>1541</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>6790</v>
+      </c>
+      <c r="F6">
+        <v>3.88</v>
+      </c>
+      <c r="G6">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1">
+        <v>42226</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>5216</v>
+      </c>
+      <c r="D7">
+        <v>1574</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>6790</v>
+      </c>
+      <c r="F7">
+        <v>3.88</v>
+      </c>
+      <c r="G7">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1">
+        <v>42257</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>5232</v>
+      </c>
+      <c r="D8">
+        <v>1558</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>6790</v>
+      </c>
+      <c r="F8">
+        <v>3.88</v>
+      </c>
+      <c r="G8">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1">
+        <v>42287</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>5207</v>
+      </c>
+      <c r="D9">
+        <v>1583</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>6790</v>
+      </c>
+      <c r="F9">
+        <v>3.88</v>
+      </c>
+      <c r="G9">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1">
+        <v>42318</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>5369</v>
+      </c>
+      <c r="D10">
+        <v>1418</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>6787</v>
+      </c>
+      <c r="F10">
+        <v>3.86</v>
+      </c>
+      <c r="G10">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1">
+        <v>42348</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>5338</v>
+      </c>
+      <c r="D11">
+        <v>1449</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>6787</v>
+      </c>
+      <c r="F11">
+        <v>3.86</v>
+      </c>
+      <c r="G11">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1">
+        <v>42379</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>5280</v>
+      </c>
+      <c r="D12">
+        <v>1507</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>6787</v>
+      </c>
+      <c r="F12">
+        <v>3.86</v>
+      </c>
+      <c r="G12">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1">
+        <v>42410</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>5153</v>
+      </c>
+      <c r="D13">
+        <v>1622</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>6775</v>
+      </c>
+      <c r="F13">
+        <v>3.8</v>
+      </c>
+      <c r="G13">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="1">
+        <v>42439</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>5676</v>
+      </c>
+      <c r="D14">
+        <v>1099</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>6775</v>
+      </c>
+      <c r="F14">
+        <v>3.8</v>
+      </c>
+      <c r="G14">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="1">
+        <v>42470</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>5351</v>
+      </c>
+      <c r="D15">
+        <v>1424</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>6775</v>
+      </c>
+      <c r="F15">
+        <v>3.8</v>
+      </c>
+      <c r="G15">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="1">
+        <v>42500</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>5489</v>
+      </c>
+      <c r="D16">
+        <v>1271</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>6760</v>
+      </c>
+      <c r="F16">
+        <v>3.73</v>
+      </c>
+      <c r="G16">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1">
+        <v>42531</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="C1">
+        <f>SUBTOTAL(9,C3:C500)</f>
+        <v>68260</v>
+      </c>
+      <c r="D1">
+        <f>SUBTOTAL(9,D3:D500)</f>
+        <v>42004</v>
+      </c>
+      <c r="G1">
+        <f>SUBTOTAL(9,G3:G500)</f>
+        <v>132000</v>
+      </c>
+      <c r="H1">
+        <f>G1-C1-D1</f>
+        <v>21736</v>
+      </c>
+      <c r="I1">
+        <v>5060</v>
+      </c>
+      <c r="J1">
+        <v>5660</v>
+      </c>
+      <c r="K1">
+        <f>D1+I1+J1</f>
+        <v>52724</v>
+      </c>
+      <c r="L1">
+        <v>1900000</v>
+      </c>
+      <c r="M1">
+        <f>L1-C1</f>
+        <v>1831740</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1">
         <v>42216</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1441,13 +1464,17 @@
         <v>3958</v>
       </c>
       <c r="E3">
+        <f>C3+D3</f>
+        <v>10068</v>
+      </c>
+      <c r="F3">
         <v>2.5</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>12000</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>42248</v>
       </c>
@@ -1461,13 +1488,17 @@
         <v>3946</v>
       </c>
       <c r="E4">
+        <f t="shared" ref="E4:E13" si="0">C4+D4</f>
+        <v>10068</v>
+      </c>
+      <c r="F4">
         <v>2.5</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>12000</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>42278</v>
       </c>
@@ -1481,13 +1512,17 @@
         <v>3933</v>
       </c>
       <c r="E5">
+        <f t="shared" si="0"/>
+        <v>10068</v>
+      </c>
+      <c r="F5">
         <v>2.5</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>12000</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>42310</v>
       </c>
@@ -1501,13 +1536,17 @@
         <v>3920</v>
       </c>
       <c r="E6">
+        <f t="shared" si="0"/>
+        <v>10068</v>
+      </c>
+      <c r="F6">
         <v>2.5</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>12000</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>42339</v>
       </c>
@@ -1521,13 +1560,17 @@
         <v>3907</v>
       </c>
       <c r="E7">
+        <f t="shared" si="0"/>
+        <v>10068</v>
+      </c>
+      <c r="F7">
         <v>2.5</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>12000</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>42369</v>
       </c>
@@ -1541,13 +1584,17 @@
         <v>3894</v>
       </c>
       <c r="E8">
+        <f t="shared" si="0"/>
+        <v>10068</v>
+      </c>
+      <c r="F8">
         <v>2.5</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>12000</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>42401</v>
       </c>
@@ -1561,13 +1608,17 @@
         <v>3757</v>
       </c>
       <c r="E9">
+        <f t="shared" si="0"/>
+        <v>9996</v>
+      </c>
+      <c r="F9">
         <v>2.42</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>12000</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>42431</v>
       </c>
@@ -1581,13 +1632,17 @@
         <v>3745</v>
       </c>
       <c r="E10">
+        <f t="shared" si="0"/>
+        <v>9996</v>
+      </c>
+      <c r="F10">
         <v>2.42</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>12000</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>42460</v>
       </c>
@@ -1601,13 +1656,17 @@
         <v>3732</v>
       </c>
       <c r="E11">
+        <f t="shared" si="0"/>
+        <v>9996</v>
+      </c>
+      <c r="F11">
         <v>2.42</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>12000</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>42494</v>
       </c>
@@ -1621,9 +1680,37 @@
         <v>3612</v>
       </c>
       <c r="E12">
+        <f t="shared" si="0"/>
+        <v>9934</v>
+      </c>
+      <c r="F12">
         <v>2.35</v>
       </c>
-      <c r="F12">
+      <c r="G12">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1">
+        <v>42521</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>6334</v>
+      </c>
+      <c r="D13">
+        <v>3600</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>9934</v>
+      </c>
+      <c r="F13">
+        <v>2.35</v>
+      </c>
+      <c r="G13">
         <v>12000</v>
       </c>
     </row>
@@ -1635,10 +1722,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1646,39 +1733,39 @@
     <col min="1" max="1" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>64694</v>
+        <v>90946</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>14389</v>
-      </c>
-      <c r="F1">
-        <f>SUBTOTAL(9,F3:F500)</f>
-        <v>80000</v>
+        <v>19695</v>
       </c>
       <c r="G1">
-        <f>F1-C1-D1</f>
-        <v>917</v>
+        <f>SUBTOTAL(9,G3:G500)</f>
+        <v>112000</v>
       </c>
       <c r="H1">
+        <f>G1-C1-D1</f>
+        <v>1359</v>
+      </c>
+      <c r="I1">
         <v>2015</v>
       </c>
-      <c r="I1">
-        <f>D1+H1</f>
-        <v>16404</v>
-      </c>
       <c r="J1">
+        <f>D1+I1</f>
+        <v>21710</v>
+      </c>
+      <c r="K1">
         <v>1200000</v>
       </c>
-      <c r="K1">
-        <f>J1-C1</f>
-        <v>1135306</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="L1">
+        <f>K1-C1</f>
+        <v>1109054</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1692,28 +1779,31 @@
         <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>42353</v>
       </c>
@@ -1727,13 +1817,17 @@
         <v>3138</v>
       </c>
       <c r="E3">
+        <f>C3+D3</f>
+        <v>15856</v>
+      </c>
+      <c r="F3">
         <v>3</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>16000</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>42019</v>
       </c>
@@ -1747,13 +1841,17 @@
         <v>2889</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <f t="shared" ref="E4:E9" si="0">C4+D4</f>
+        <v>15816</v>
       </c>
       <c r="F4">
+        <v>2.93</v>
+      </c>
+      <c r="G4">
         <v>16000</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>42415</v>
       </c>
@@ -1767,13 +1865,17 @@
         <v>2858</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>15816</v>
       </c>
       <c r="F5">
+        <v>2.93</v>
+      </c>
+      <c r="G5">
         <v>16000</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>42444</v>
       </c>
@@ -1787,13 +1889,17 @@
         <v>2777</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>15816</v>
       </c>
       <c r="F6">
+        <v>2.87</v>
+      </c>
+      <c r="G6">
         <v>16000</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>42475</v>
       </c>
@@ -1807,86 +1913,130 @@
         <v>2727</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>15779</v>
       </c>
       <c r="F7">
+        <v>2.85</v>
+      </c>
+      <c r="G7">
         <v>16000</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12">
+    <row r="8" spans="1:13">
+      <c r="A8" s="1">
+        <v>42505</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>13083</v>
+      </c>
+      <c r="D8">
+        <v>2696</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>15779</v>
+      </c>
+      <c r="F8">
+        <v>2.85</v>
+      </c>
+      <c r="G8">
+        <v>16000</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1">
+        <v>42536</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>13169</v>
+      </c>
+      <c r="D9">
+        <v>2610</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>15779</v>
+      </c>
+      <c r="F9">
+        <v>2.8</v>
+      </c>
+      <c r="G9">
+        <v>16000</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1"/>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1"/>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1"/>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1"/>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1"/>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="12:12">
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="12:12">
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="12:12">
-      <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="12:12">
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="12:12">
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="12:12">
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="12:12">
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="12:12">
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="12:12">
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="12:12">
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="12:12">
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="12:12">
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="12:12">
-      <c r="L29" s="3"/>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="13:13">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="13:13">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="13:13">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="13:13">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="13:13">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="13:13">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="13:13">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="13:13">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="13:13">
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="13:13">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="13:13">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="13:13">
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="13:13">
+      <c r="M29" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/交易紀錄/信用貸款.xlsx
+++ b/交易紀錄/信用貸款.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="國泰" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="15">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,6 +151,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -162,7 +230,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -439,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -450,7 +518,7 @@
     <col min="1" max="2" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
         <v>650000</v>
@@ -459,30 +527,30 @@
         <f>SUBTOTAL(9,D3:D500)</f>
         <v>14427</v>
       </c>
-      <c r="F1">
-        <f>SUBTOTAL(9,F3:F500)</f>
+      <c r="G1">
+        <f>SUBTOTAL(9,G3:G500)</f>
         <v>672967</v>
       </c>
-      <c r="G1">
-        <f>F1-C1-D1</f>
+      <c r="H1">
+        <f>G1-C1-D1</f>
         <v>8540</v>
       </c>
-      <c r="H1">
+      <c r="I1">
         <v>5000</v>
       </c>
-      <c r="I1">
-        <f>D1+H1</f>
+      <c r="J1">
+        <f>D1+I1</f>
         <v>19427</v>
       </c>
-      <c r="J1">
+      <c r="K1">
         <v>650000</v>
       </c>
-      <c r="K1">
-        <f>J1-C1</f>
+      <c r="L1">
+        <f>K1-C1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -496,28 +564,31 @@
         <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>41986</v>
       </c>
@@ -531,13 +602,17 @@
         <v>1950</v>
       </c>
       <c r="E3">
+        <f>C3+D3</f>
+        <v>8780</v>
+      </c>
+      <c r="F3">
         <v>3.65</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>42017</v>
       </c>
@@ -551,13 +626,17 @@
         <v>1994</v>
       </c>
       <c r="E4">
+        <f t="shared" ref="E4:E9" si="0">C4+D4</f>
+        <v>8780</v>
+      </c>
+      <c r="F4">
         <v>3.65</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>10000</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>42048</v>
       </c>
@@ -571,13 +650,17 @@
         <v>1973</v>
       </c>
       <c r="E5">
+        <f t="shared" si="0"/>
+        <v>8780</v>
+      </c>
+      <c r="F5">
         <v>3.65</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>10000</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>42076</v>
       </c>
@@ -591,13 +674,17 @@
         <v>1763</v>
       </c>
       <c r="E6">
+        <f t="shared" si="0"/>
+        <v>8780</v>
+      </c>
+      <c r="F6">
         <v>3.65</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>10000</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>42107</v>
       </c>
@@ -611,13 +698,17 @@
         <v>1930</v>
       </c>
       <c r="E7">
+        <f t="shared" si="0"/>
+        <v>8780</v>
+      </c>
+      <c r="F7">
         <v>3.65</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>10000</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>42137</v>
       </c>
@@ -631,13 +722,17 @@
         <v>1847</v>
       </c>
       <c r="E8">
+        <f t="shared" si="0"/>
+        <v>8780</v>
+      </c>
+      <c r="F8">
         <v>3.65</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>10000</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>42170</v>
       </c>
@@ -651,13 +746,17 @@
         <v>1887</v>
       </c>
       <c r="E9">
+        <f t="shared" si="0"/>
+        <v>8780</v>
+      </c>
+      <c r="F9">
         <v>3.65</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>10000</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>42186</v>
       </c>
@@ -668,13 +767,13 @@
         <v>601884</v>
       </c>
       <c r="D10">
-        <f>F10-C10</f>
+        <f>G10-C10</f>
         <v>1083</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>3.65</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>602967</v>
       </c>
     </row>
@@ -687,10 +786,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -698,7 +797,7 @@
     <col min="1" max="2" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
         <v>500000</v>
@@ -707,30 +806,30 @@
         <f>SUBTOTAL(9,D3:D500)</f>
         <v>6996</v>
       </c>
-      <c r="F1">
-        <f>SUBTOTAL(9,F3:F500)</f>
+      <c r="G1">
+        <f>SUBTOTAL(9,G3:G500)</f>
         <v>521000</v>
       </c>
-      <c r="G1">
-        <f>F1-C1-D1</f>
+      <c r="H1">
+        <f>G1-C1-D1</f>
         <v>14004</v>
       </c>
-      <c r="H1">
+      <c r="I1">
         <v>3200</v>
       </c>
-      <c r="I1">
-        <f>D1+H1</f>
+      <c r="J1">
+        <f>D1+I1</f>
         <v>10196</v>
       </c>
-      <c r="J1">
+      <c r="K1">
         <v>500000</v>
       </c>
-      <c r="K1">
-        <f>J1-C1</f>
+      <c r="L1">
+        <f>K1-C1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -744,28 +843,31 @@
         <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>41998</v>
       </c>
@@ -779,13 +881,17 @@
         <v>783</v>
       </c>
       <c r="E3">
+        <f>C3+D3</f>
+        <v>6360</v>
+      </c>
+      <c r="F3">
         <v>1.88</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>8000</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>42030</v>
       </c>
@@ -799,13 +905,17 @@
         <v>775</v>
       </c>
       <c r="E4">
+        <f t="shared" ref="E4:E9" si="0">C4+D4</f>
+        <v>6360</v>
+      </c>
+      <c r="F4">
         <v>1.88</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>8000</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>42060</v>
       </c>
@@ -819,13 +929,17 @@
         <v>766</v>
       </c>
       <c r="E5">
+        <f t="shared" si="0"/>
+        <v>6360</v>
+      </c>
+      <c r="F5">
         <v>1.88</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>8000</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>42088</v>
       </c>
@@ -839,13 +953,17 @@
         <v>1087</v>
       </c>
       <c r="E6">
+        <f t="shared" si="0"/>
+        <v>6540</v>
+      </c>
+      <c r="F6">
         <v>2.7</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>8000</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>42121</v>
       </c>
@@ -859,13 +977,17 @@
         <v>1075</v>
       </c>
       <c r="E7">
+        <f t="shared" si="0"/>
+        <v>6540</v>
+      </c>
+      <c r="F7">
         <v>2.7</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>8000</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>42149</v>
       </c>
@@ -879,13 +1001,17 @@
         <v>1063</v>
       </c>
       <c r="E8">
+        <f t="shared" si="0"/>
+        <v>6540</v>
+      </c>
+      <c r="F8">
         <v>2.7</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>8000</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>42180</v>
       </c>
@@ -899,13 +1025,17 @@
         <v>1245</v>
       </c>
       <c r="E9">
+        <f t="shared" si="0"/>
+        <v>6640</v>
+      </c>
+      <c r="F9">
         <v>3.2</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>8000</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>42185</v>
       </c>
@@ -918,10 +1048,10 @@
       <c r="D10">
         <v>202</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>3.2</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>465000</v>
       </c>
     </row>
@@ -936,7 +1066,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1363,10 +1493,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1377,19 +1507,19 @@
     <row r="1" spans="1:13">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>68260</v>
+        <v>74607</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>42004</v>
+        <v>45591</v>
       </c>
       <c r="G1">
         <f>SUBTOTAL(9,G3:G500)</f>
-        <v>132000</v>
+        <v>144000</v>
       </c>
       <c r="H1">
         <f>G1-C1-D1</f>
-        <v>21736</v>
+        <v>23802</v>
       </c>
       <c r="I1">
         <v>5060</v>
@@ -1399,14 +1529,14 @@
       </c>
       <c r="K1">
         <f>D1+I1+J1</f>
-        <v>52724</v>
+        <v>56311</v>
       </c>
       <c r="L1">
         <v>1900000</v>
       </c>
       <c r="M1">
         <f>L1-C1</f>
-        <v>1831740</v>
+        <v>1825393</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1488,7 +1618,7 @@
         <v>3946</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E13" si="0">C4+D4</f>
+        <f t="shared" ref="E4:E14" si="0">C4+D4</f>
         <v>10068</v>
       </c>
       <c r="F4">
@@ -1712,6 +1842,35 @@
       </c>
       <c r="G13">
         <v>12000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1">
+        <v>42552</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>6347</v>
+      </c>
+      <c r="D14">
+        <v>3587</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>9934</v>
+      </c>
+      <c r="F14">
+        <v>2.35</v>
+      </c>
+      <c r="G14">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="F15">
+        <v>2.27</v>
       </c>
     </row>
   </sheetData>
@@ -1724,8 +1883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/交易紀錄/信用貸款.xlsx
+++ b/交易紀錄/信用貸款.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="國泰" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="15">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1066,7 +1066,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1077,33 +1077,33 @@
     <row r="1" spans="1:12">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>75421</v>
+        <v>80710</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>18115</v>
+        <v>19586</v>
       </c>
       <c r="G1">
         <f>SUBTOTAL(9,G3:G500)</f>
-        <v>112000</v>
+        <v>120000</v>
       </c>
       <c r="H1">
         <f>G1-C1-D1</f>
-        <v>18464</v>
+        <v>19704</v>
       </c>
       <c r="I1">
         <v>4530</v>
       </c>
       <c r="J1">
         <f>D1+I1</f>
-        <v>22645</v>
+        <v>24116</v>
       </c>
       <c r="K1">
         <v>500000</v>
       </c>
       <c r="L1">
         <f>K1-C1</f>
-        <v>424579</v>
+        <v>419290</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1182,7 +1182,7 @@
         <v>697</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E16" si="0">C4+D4</f>
+        <f t="shared" ref="E4:E17" si="0">C4+D4</f>
         <v>6310</v>
       </c>
       <c r="F4">
@@ -1480,9 +1480,28 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>42531</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>5289</v>
+      </c>
+      <c r="D17">
+        <v>1471</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>6760</v>
+      </c>
+      <c r="F17">
+        <v>3.73</v>
+      </c>
+      <c r="G17">
+        <v>8000</v>
       </c>
     </row>
   </sheetData>
@@ -1495,8 +1514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1883,8 +1902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/交易紀錄/信用貸款.xlsx
+++ b/交易紀錄/信用貸款.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="15">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,74 +151,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -230,7 +162,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1903,7 +1835,7 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1914,33 +1846,33 @@
     <row r="1" spans="1:13">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>90946</v>
+        <v>117332</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>19695</v>
+        <v>24785</v>
       </c>
       <c r="G1">
         <f>SUBTOTAL(9,G3:G500)</f>
-        <v>112000</v>
+        <v>144000</v>
       </c>
       <c r="H1">
         <f>G1-C1-D1</f>
-        <v>1359</v>
+        <v>1883</v>
       </c>
       <c r="I1">
         <v>2015</v>
       </c>
       <c r="J1">
         <f>D1+I1</f>
-        <v>21710</v>
+        <v>26800</v>
       </c>
       <c r="K1">
         <v>1200000</v>
       </c>
       <c r="L1">
         <f>K1-C1</f>
-        <v>1109054</v>
+        <v>1082668</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1999,7 +1931,7 @@
         <v>15856</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="G3">
         <v>16000</v>
@@ -2019,11 +1951,11 @@
         <v>2889</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E9" si="0">C4+D4</f>
+        <f t="shared" ref="E4:E11" si="0">C4+D4</f>
         <v>15816</v>
       </c>
       <c r="F4">
-        <v>2.93</v>
+        <v>2.92</v>
       </c>
       <c r="G4">
         <v>16000</v>
@@ -2047,7 +1979,7 @@
         <v>15816</v>
       </c>
       <c r="F5">
-        <v>2.93</v>
+        <v>2.92</v>
       </c>
       <c r="G5">
         <v>16000</v>
@@ -2071,7 +2003,7 @@
         <v>15816</v>
       </c>
       <c r="F6">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="G6">
         <v>16000</v>
@@ -2144,7 +2076,7 @@
         <v>15779</v>
       </c>
       <c r="F9">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="G9">
         <v>16000</v>
@@ -2152,11 +2084,53 @@
       <c r="M9" s="3"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1">
+        <v>42566</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>13178</v>
+      </c>
+      <c r="D10">
+        <v>2560</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>15738</v>
+      </c>
+      <c r="F10">
+        <v>2.77</v>
+      </c>
+      <c r="G10">
+        <v>16000</v>
+      </c>
       <c r="M10" s="3"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1">
+        <v>42597</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>13208</v>
+      </c>
+      <c r="D11">
+        <v>2530</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>15738</v>
+      </c>
+      <c r="F11">
+        <v>2.77</v>
+      </c>
+      <c r="G11">
+        <v>16000</v>
+      </c>
       <c r="M11" s="3"/>
     </row>
     <row r="12" spans="1:13">

--- a/交易紀錄/信用貸款.xlsx
+++ b/交易紀錄/信用貸款.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="15">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -721,7 +721,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -998,7 +998,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1444,10 +1444,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1458,19 +1458,19 @@
     <row r="1" spans="1:13">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>74607</v>
+        <v>87441</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>45591</v>
+        <v>52485</v>
       </c>
       <c r="G1">
         <f>SUBTOTAL(9,G3:G500)</f>
-        <v>144000</v>
+        <v>168000</v>
       </c>
       <c r="H1">
         <f>G1-C1-D1</f>
-        <v>23802</v>
+        <v>28074</v>
       </c>
       <c r="I1">
         <v>5060</v>
@@ -1480,14 +1480,14 @@
       </c>
       <c r="K1">
         <f>D1+I1+J1</f>
-        <v>56311</v>
+        <v>63205</v>
       </c>
       <c r="L1">
         <v>1900000</v>
       </c>
       <c r="M1">
         <f>L1-C1</f>
-        <v>1825393</v>
+        <v>1812559</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1569,7 +1569,7 @@
         <v>3946</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E14" si="0">C4+D4</f>
+        <f t="shared" ref="E4:E16" si="0">C4+D4</f>
         <v>10068</v>
       </c>
       <c r="F4">
@@ -1820,8 +1820,51 @@
       </c>
     </row>
     <row r="15" spans="1:13">
+      <c r="A15" s="1">
+        <v>42584</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>6411</v>
+      </c>
+      <c r="D15">
+        <v>3453</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>9864</v>
+      </c>
       <c r="F15">
         <v>2.27</v>
+      </c>
+      <c r="G15">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>42613</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>6423</v>
+      </c>
+      <c r="D16">
+        <v>3441</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>9864</v>
+      </c>
+      <c r="F16">
+        <v>2.27</v>
+      </c>
+      <c r="G16">
+        <v>12000</v>
       </c>
     </row>
   </sheetData>
@@ -1835,7 +1878,7 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1846,33 +1889,33 @@
     <row r="1" spans="1:13">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>117332</v>
+        <v>130624</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>24785</v>
+        <v>27231</v>
       </c>
       <c r="G1">
         <f>SUBTOTAL(9,G3:G500)</f>
-        <v>144000</v>
+        <v>160000</v>
       </c>
       <c r="H1">
         <f>G1-C1-D1</f>
-        <v>1883</v>
+        <v>2145</v>
       </c>
       <c r="I1">
         <v>2015</v>
       </c>
       <c r="J1">
         <f>D1+I1</f>
-        <v>26800</v>
+        <v>29246</v>
       </c>
       <c r="K1">
         <v>1200000</v>
       </c>
       <c r="L1">
         <f>K1-C1</f>
-        <v>1082668</v>
+        <v>1069376</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1951,7 +1994,7 @@
         <v>2889</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E11" si="0">C4+D4</f>
+        <f t="shared" ref="E4:E12" si="0">C4+D4</f>
         <v>15816</v>
       </c>
       <c r="F4">
@@ -2134,7 +2177,28 @@
       <c r="M11" s="3"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1">
+        <v>42628</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>13292</v>
+      </c>
+      <c r="D12">
+        <v>2446</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>15738</v>
+      </c>
+      <c r="F12">
+        <v>2.69</v>
+      </c>
+      <c r="G12">
+        <v>16000</v>
+      </c>
       <c r="M12" s="3"/>
     </row>
     <row r="13" spans="1:13">

--- a/交易紀錄/信用貸款.xlsx
+++ b/交易紀錄/信用貸款.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="國泰" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="15">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -721,7 +721,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -995,10 +995,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1009,33 +1009,33 @@
     <row r="1" spans="1:12">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>80710</v>
+        <v>91786</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>19586</v>
+        <v>22022</v>
       </c>
       <c r="G1">
         <f>SUBTOTAL(9,G3:G500)</f>
-        <v>120000</v>
+        <v>136000</v>
       </c>
       <c r="H1">
         <f>G1-C1-D1</f>
-        <v>19704</v>
+        <v>22192</v>
       </c>
       <c r="I1">
         <v>4530</v>
       </c>
       <c r="J1">
         <f>D1+I1</f>
-        <v>24116</v>
+        <v>26552</v>
       </c>
       <c r="K1">
         <v>500000</v>
       </c>
       <c r="L1">
         <f>K1-C1</f>
-        <v>419290</v>
+        <v>408214</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1114,7 +1114,7 @@
         <v>697</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E17" si="0">C4+D4</f>
+        <f t="shared" ref="E4:E19" si="0">C4+D4</f>
         <v>6310</v>
       </c>
       <c r="F4">
@@ -1433,6 +1433,51 @@
         <v>3.73</v>
       </c>
       <c r="G17">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>42561</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>5576</v>
+      </c>
+      <c r="D18">
+        <v>1184</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>6760</v>
+      </c>
+      <c r="F18">
+        <v>3.73</v>
+      </c>
+      <c r="G18">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>42592</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>5500</v>
+      </c>
+      <c r="D19">
+        <v>1252</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>6752</v>
+      </c>
+      <c r="G19">
         <v>8000</v>
       </c>
     </row>
@@ -1447,7 +1492,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1877,8 +1922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1974,7 +2019,7 @@
         <v>15856</v>
       </c>
       <c r="F3">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="G3">
         <v>16000</v>
@@ -1998,7 +2043,7 @@
         <v>15816</v>
       </c>
       <c r="F4">
-        <v>2.92</v>
+        <v>2.93</v>
       </c>
       <c r="G4">
         <v>16000</v>
@@ -2022,7 +2067,7 @@
         <v>15816</v>
       </c>
       <c r="F5">
-        <v>2.92</v>
+        <v>2.93</v>
       </c>
       <c r="G5">
         <v>16000</v>
@@ -2046,7 +2091,7 @@
         <v>15816</v>
       </c>
       <c r="F6">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="G6">
         <v>16000</v>
@@ -2119,7 +2164,7 @@
         <v>15779</v>
       </c>
       <c r="F9">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="G9">
         <v>16000</v>

--- a/交易紀錄/信用貸款.xlsx
+++ b/交易紀錄/信用貸款.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="15">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -998,7 +998,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1489,10 +1489,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1503,19 +1503,19 @@
     <row r="1" spans="1:13">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>87441</v>
+        <v>93876</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>52485</v>
+        <v>55914</v>
       </c>
       <c r="G1">
         <f>SUBTOTAL(9,G3:G500)</f>
-        <v>168000</v>
+        <v>180000</v>
       </c>
       <c r="H1">
         <f>G1-C1-D1</f>
-        <v>28074</v>
+        <v>30210</v>
       </c>
       <c r="I1">
         <v>5060</v>
@@ -1525,14 +1525,14 @@
       </c>
       <c r="K1">
         <f>D1+I1+J1</f>
-        <v>63205</v>
+        <v>66634</v>
       </c>
       <c r="L1">
         <v>1900000</v>
       </c>
       <c r="M1">
         <f>L1-C1</f>
-        <v>1812559</v>
+        <v>1806124</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1614,7 +1614,7 @@
         <v>3946</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E16" si="0">C4+D4</f>
+        <f t="shared" ref="E4:E17" si="0">C4+D4</f>
         <v>10068</v>
       </c>
       <c r="F4">
@@ -1909,6 +1909,30 @@
         <v>2.27</v>
       </c>
       <c r="G16">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>42646</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>6435</v>
+      </c>
+      <c r="D17">
+        <v>3429</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>9864</v>
+      </c>
+      <c r="F17">
+        <v>2.27</v>
+      </c>
+      <c r="G17">
         <v>12000</v>
       </c>
     </row>
@@ -1923,7 +1947,7 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1934,33 +1958,33 @@
     <row r="1" spans="1:13">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>130624</v>
+        <v>143926</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>27231</v>
+        <v>29628</v>
       </c>
       <c r="G1">
         <f>SUBTOTAL(9,G3:G500)</f>
-        <v>160000</v>
+        <v>176000</v>
       </c>
       <c r="H1">
         <f>G1-C1-D1</f>
-        <v>2145</v>
+        <v>2446</v>
       </c>
       <c r="I1">
         <v>2015</v>
       </c>
       <c r="J1">
         <f>D1+I1</f>
-        <v>29246</v>
+        <v>31643</v>
       </c>
       <c r="K1">
         <v>1200000</v>
       </c>
       <c r="L1">
         <f>K1-C1</f>
-        <v>1069376</v>
+        <v>1056074</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -2039,7 +2063,7 @@
         <v>2889</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E12" si="0">C4+D4</f>
+        <f t="shared" ref="E4:E13" si="0">C4+D4</f>
         <v>15816</v>
       </c>
       <c r="F4">
@@ -2247,7 +2271,28 @@
       <c r="M12" s="3"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1">
+        <v>42658</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>13302</v>
+      </c>
+      <c r="D13">
+        <v>2397</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>15699</v>
+      </c>
+      <c r="F13">
+        <v>2.69</v>
+      </c>
+      <c r="G13">
+        <v>16000</v>
+      </c>
       <c r="M13" s="3"/>
     </row>
     <row r="14" spans="1:13">

--- a/交易紀錄/信用貸款.xlsx
+++ b/交易紀錄/信用貸款.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="國泰" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="15">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -995,10 +995,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1009,33 +1009,33 @@
     <row r="1" spans="1:12">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>91786</v>
+        <v>97262</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>22022</v>
+        <v>23298</v>
       </c>
       <c r="G1">
         <f>SUBTOTAL(9,G3:G500)</f>
-        <v>136000</v>
+        <v>144000</v>
       </c>
       <c r="H1">
         <f>G1-C1-D1</f>
-        <v>22192</v>
+        <v>23440</v>
       </c>
       <c r="I1">
         <v>4530</v>
       </c>
       <c r="J1">
         <f>D1+I1</f>
-        <v>26552</v>
+        <v>27828</v>
       </c>
       <c r="K1">
         <v>500000</v>
       </c>
       <c r="L1">
         <f>K1-C1</f>
-        <v>408214</v>
+        <v>402738</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1114,7 +1114,7 @@
         <v>697</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E19" si="0">C4+D4</f>
+        <f t="shared" ref="E4:E20" si="0">C4+D4</f>
         <v>6310</v>
       </c>
       <c r="F4">
@@ -1479,6 +1479,32 @@
       </c>
       <c r="G19">
         <v>8000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>42623</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>5476</v>
+      </c>
+      <c r="D20">
+        <v>1276</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>6752</v>
+      </c>
+      <c r="G20">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>42653</v>
       </c>
     </row>
   </sheetData>
@@ -1491,8 +1517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1947,7 +1973,7 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/交易紀錄/信用貸款.xlsx
+++ b/交易紀錄/信用貸款.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="國泰" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="15">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -995,10 +995,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1009,33 +1009,33 @@
     <row r="1" spans="1:12">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>97262</v>
+        <v>108318</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>23298</v>
+        <v>25741</v>
       </c>
       <c r="G1">
         <f>SUBTOTAL(9,G3:G500)</f>
-        <v>144000</v>
+        <v>160000</v>
       </c>
       <c r="H1">
         <f>G1-C1-D1</f>
-        <v>23440</v>
+        <v>25941</v>
       </c>
       <c r="I1">
         <v>4530</v>
       </c>
       <c r="J1">
         <f>D1+I1</f>
-        <v>27828</v>
+        <v>30271</v>
       </c>
       <c r="K1">
         <v>500000</v>
       </c>
       <c r="L1">
         <f>K1-C1</f>
-        <v>402738</v>
+        <v>391682</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1114,7 +1114,7 @@
         <v>697</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E20" si="0">C4+D4</f>
+        <f t="shared" ref="E4:E22" si="0">C4+D4</f>
         <v>6310</v>
       </c>
       <c r="F4">
@@ -1477,6 +1477,9 @@
         <f t="shared" si="0"/>
         <v>6752</v>
       </c>
+      <c r="F19">
+        <v>3.73</v>
+      </c>
       <c r="G19">
         <v>8000</v>
       </c>
@@ -1498,6 +1501,9 @@
         <f t="shared" si="0"/>
         <v>6752</v>
       </c>
+      <c r="F20">
+        <v>3.73</v>
+      </c>
       <c r="G20">
         <v>8000</v>
       </c>
@@ -1505,6 +1511,49 @@
     <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>42653</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>5501</v>
+      </c>
+      <c r="D21">
+        <v>1251</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>6752</v>
+      </c>
+      <c r="F21">
+        <v>3.73</v>
+      </c>
+      <c r="G21">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>42684</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>5555</v>
+      </c>
+      <c r="D22">
+        <v>1192</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>6747</v>
+      </c>
+      <c r="F22">
+        <v>3.65</v>
+      </c>
+      <c r="G22">
+        <v>8000</v>
       </c>
     </row>
   </sheetData>
@@ -1515,10 +1564,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1529,19 +1578,19 @@
     <row r="1" spans="1:13">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>93876</v>
+        <v>106886</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>55914</v>
+        <v>62494</v>
       </c>
       <c r="G1">
         <f>SUBTOTAL(9,G3:G500)</f>
-        <v>180000</v>
+        <v>204000</v>
       </c>
       <c r="H1">
         <f>G1-C1-D1</f>
-        <v>30210</v>
+        <v>34620</v>
       </c>
       <c r="I1">
         <v>5060</v>
@@ -1551,14 +1600,14 @@
       </c>
       <c r="K1">
         <f>D1+I1+J1</f>
-        <v>66634</v>
+        <v>73214</v>
       </c>
       <c r="L1">
         <v>1900000</v>
       </c>
       <c r="M1">
         <f>L1-C1</f>
-        <v>1806124</v>
+        <v>1793114</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1640,7 +1689,7 @@
         <v>3946</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E17" si="0">C4+D4</f>
+        <f t="shared" ref="E4:E19" si="0">C4+D4</f>
         <v>10068</v>
       </c>
       <c r="F4">
@@ -1959,6 +2008,54 @@
         <v>2.27</v>
       </c>
       <c r="G17">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>42675</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>6499</v>
+      </c>
+      <c r="D18">
+        <v>3296</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>9795</v>
+      </c>
+      <c r="F18">
+        <v>2.19</v>
+      </c>
+      <c r="G18">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>42705</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>6511</v>
+      </c>
+      <c r="D19">
+        <v>3284</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>9795</v>
+      </c>
+      <c r="F19">
+        <v>2.19</v>
+      </c>
+      <c r="G19">
         <v>12000</v>
       </c>
     </row>
@@ -1973,7 +2070,7 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1984,33 +2081,33 @@
     <row r="1" spans="1:13">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>143926</v>
+        <v>170620</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>29628</v>
+        <v>34332</v>
       </c>
       <c r="G1">
         <f>SUBTOTAL(9,G3:G500)</f>
-        <v>176000</v>
+        <v>208000</v>
       </c>
       <c r="H1">
         <f>G1-C1-D1</f>
-        <v>2446</v>
+        <v>3048</v>
       </c>
       <c r="I1">
         <v>2015</v>
       </c>
       <c r="J1">
         <f>D1+I1</f>
-        <v>31643</v>
+        <v>36347</v>
       </c>
       <c r="K1">
         <v>1200000</v>
       </c>
       <c r="L1">
         <f>K1-C1</f>
-        <v>1056074</v>
+        <v>1029380</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -2089,7 +2186,7 @@
         <v>2889</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E13" si="0">C4+D4</f>
+        <f t="shared" ref="E4:E15" si="0">C4+D4</f>
         <v>15816</v>
       </c>
       <c r="F4">
@@ -2322,10 +2419,53 @@
       <c r="M13" s="3"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1">
+        <v>42689</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>13332</v>
+      </c>
+      <c r="D14">
+        <v>2367</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>15699</v>
+      </c>
+      <c r="F14">
+        <v>2.69</v>
+      </c>
+      <c r="G14">
+        <v>16000</v>
+      </c>
       <c r="M14" s="3"/>
     </row>
     <row r="15" spans="1:13">
+      <c r="A15" s="1">
+        <v>42719</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>13362</v>
+      </c>
+      <c r="D15">
+        <v>2337</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>15699</v>
+      </c>
+      <c r="F15">
+        <v>2.69</v>
+      </c>
+      <c r="G15">
+        <v>16000</v>
+      </c>
       <c r="M15" s="3"/>
     </row>
     <row r="16" spans="1:13">

--- a/交易紀錄/信用貸款.xlsx
+++ b/交易紀錄/信用貸款.xlsx
@@ -997,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1566,8 +1566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18:G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2070,7 +2070,7 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2174,7 +2174,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1">
-        <v>42019</v>
+        <v>42384</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>

--- a/交易紀錄/信用貸款.xlsx
+++ b/交易紀錄/信用貸款.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="國泰" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="15">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -997,7 +997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
@@ -1564,10 +1564,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1578,19 +1578,19 @@
     <row r="1" spans="1:13">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>106886</v>
+        <v>119943</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>62494</v>
+        <v>69027</v>
       </c>
       <c r="G1">
         <f>SUBTOTAL(9,G3:G500)</f>
-        <v>204000</v>
+        <v>228000</v>
       </c>
       <c r="H1">
         <f>G1-C1-D1</f>
-        <v>34620</v>
+        <v>39030</v>
       </c>
       <c r="I1">
         <v>5060</v>
@@ -1600,14 +1600,14 @@
       </c>
       <c r="K1">
         <f>D1+I1+J1</f>
-        <v>73214</v>
+        <v>79747</v>
       </c>
       <c r="L1">
         <v>1900000</v>
       </c>
       <c r="M1">
         <f>L1-C1</f>
-        <v>1793114</v>
+        <v>1780057</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1689,7 +1689,7 @@
         <v>3946</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E19" si="0">C4+D4</f>
+        <f t="shared" ref="E4:E21" si="0">C4+D4</f>
         <v>10068</v>
       </c>
       <c r="F4">
@@ -2056,6 +2056,54 @@
         <v>2.19</v>
       </c>
       <c r="G19">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>42738</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>6523</v>
+      </c>
+      <c r="D20">
+        <v>3272</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>9795</v>
+      </c>
+      <c r="F20">
+        <v>2.19</v>
+      </c>
+      <c r="G20">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>42769</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>6534</v>
+      </c>
+      <c r="D21">
+        <v>3261</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>9795</v>
+      </c>
+      <c r="F21">
+        <v>2.19</v>
+      </c>
+      <c r="G21">
         <v>12000</v>
       </c>
     </row>
@@ -2069,8 +2117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2081,33 +2129,33 @@
     <row r="1" spans="1:13">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>170620</v>
+        <v>184011</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>34332</v>
+        <v>36640</v>
       </c>
       <c r="G1">
         <f>SUBTOTAL(9,G3:G500)</f>
-        <v>208000</v>
+        <v>224000</v>
       </c>
       <c r="H1">
         <f>G1-C1-D1</f>
-        <v>3048</v>
+        <v>3349</v>
       </c>
       <c r="I1">
         <v>2015</v>
       </c>
       <c r="J1">
         <f>D1+I1</f>
-        <v>36347</v>
+        <v>38655</v>
       </c>
       <c r="K1">
         <v>1200000</v>
       </c>
       <c r="L1">
         <f>K1-C1</f>
-        <v>1029380</v>
+        <v>1015989</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -2186,7 +2234,7 @@
         <v>2889</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E15" si="0">C4+D4</f>
+        <f t="shared" ref="E4:E16" si="0">C4+D4</f>
         <v>15816</v>
       </c>
       <c r="F4">
@@ -2469,6 +2517,28 @@
       <c r="M15" s="3"/>
     </row>
     <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>42751</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>13391</v>
+      </c>
+      <c r="D16">
+        <v>2308</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>15699</v>
+      </c>
+      <c r="F16">
+        <v>2.69</v>
+      </c>
+      <c r="G16">
+        <v>16000</v>
+      </c>
       <c r="M16" s="3"/>
     </row>
     <row r="17" spans="13:13">

--- a/交易紀錄/信用貸款.xlsx
+++ b/交易紀錄/信用貸款.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="國泰" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="16">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,6 +77,10 @@
   </si>
   <si>
     <t>總數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每月繳款</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -997,8 +1001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1564,10 +1568,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D22" sqref="C22:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1578,19 +1582,19 @@
     <row r="1" spans="1:13">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>119943</v>
+        <v>126489</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>69027</v>
+        <v>72276</v>
       </c>
       <c r="G1">
         <f>SUBTOTAL(9,G3:G500)</f>
-        <v>228000</v>
+        <v>240000</v>
       </c>
       <c r="H1">
         <f>G1-C1-D1</f>
-        <v>39030</v>
+        <v>41235</v>
       </c>
       <c r="I1">
         <v>5060</v>
@@ -1600,14 +1604,14 @@
       </c>
       <c r="K1">
         <f>D1+I1+J1</f>
-        <v>79747</v>
+        <v>82996</v>
       </c>
       <c r="L1">
         <v>1900000</v>
       </c>
       <c r="M1">
         <f>L1-C1</f>
-        <v>1780057</v>
+        <v>1773511</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1689,7 +1693,7 @@
         <v>3946</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E21" si="0">C4+D4</f>
+        <f t="shared" ref="E4:E22" si="0">C4+D4</f>
         <v>10068</v>
       </c>
       <c r="F4">
@@ -2104,6 +2108,30 @@
         <v>2.19</v>
       </c>
       <c r="G21">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>42796</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>6546</v>
+      </c>
+      <c r="D22">
+        <v>3249</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>9795</v>
+      </c>
+      <c r="F22">
+        <v>2.19</v>
+      </c>
+      <c r="G22">
         <v>12000</v>
       </c>
     </row>
@@ -2117,8 +2145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2129,33 +2157,33 @@
     <row r="1" spans="1:13">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>184011</v>
+        <v>210884</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>36640</v>
+        <v>41165</v>
       </c>
       <c r="G1">
         <f>SUBTOTAL(9,G3:G500)</f>
-        <v>224000</v>
+        <v>256000</v>
       </c>
       <c r="H1">
         <f>G1-C1-D1</f>
-        <v>3349</v>
+        <v>3951</v>
       </c>
       <c r="I1">
         <v>2015</v>
       </c>
       <c r="J1">
         <f>D1+I1</f>
-        <v>38655</v>
+        <v>43180</v>
       </c>
       <c r="K1">
         <v>1200000</v>
       </c>
       <c r="L1">
         <f>K1-C1</f>
-        <v>1015989</v>
+        <v>989116</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -2234,7 +2262,7 @@
         <v>2889</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E16" si="0">C4+D4</f>
+        <f t="shared" ref="E4:E18" si="0">C4+D4</f>
         <v>15816</v>
       </c>
       <c r="F4">
@@ -2541,43 +2569,87 @@
       </c>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="13:13">
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>42781</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>13421</v>
+      </c>
+      <c r="D17">
+        <v>2278</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>15699</v>
+      </c>
+      <c r="F17">
+        <v>2.69</v>
+      </c>
+      <c r="G17">
+        <v>16000</v>
+      </c>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="13:13">
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>42809</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>13452</v>
+      </c>
+      <c r="D18">
+        <v>2247</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>15699</v>
+      </c>
+      <c r="F18">
+        <v>2.69</v>
+      </c>
+      <c r="G18">
+        <v>16000</v>
+      </c>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="13:13">
+    <row r="19" spans="1:13">
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="13:13">
+    <row r="20" spans="1:13">
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="13:13">
+    <row r="21" spans="1:13">
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="13:13">
+    <row r="22" spans="1:13">
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="13:13">
+    <row r="23" spans="1:13">
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="13:13">
+    <row r="24" spans="1:13">
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="13:13">
+    <row r="25" spans="1:13">
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="13:13">
+    <row r="26" spans="1:13">
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="13:13">
+    <row r="27" spans="1:13">
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="13:13">
+    <row r="28" spans="1:13">
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="13:13">
+    <row r="29" spans="1:13">
       <c r="M29" s="3"/>
     </row>
   </sheetData>

--- a/交易紀錄/信用貸款.xlsx
+++ b/交易紀錄/信用貸款.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760" activeTab="4"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="28860" windowHeight="6165" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="國泰" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="16">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,7 +81,6 @@
   </si>
   <si>
     <t>每月繳款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -999,10 +998,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1013,33 +1012,33 @@
     <row r="1" spans="1:12">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>108318</v>
+        <v>119438</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>25741</v>
+        <v>28115</v>
       </c>
       <c r="G1">
         <f>SUBTOTAL(9,G3:G500)</f>
-        <v>160000</v>
+        <v>176000</v>
       </c>
       <c r="H1">
         <f>G1-C1-D1</f>
-        <v>25941</v>
+        <v>28447</v>
       </c>
       <c r="I1">
         <v>4530</v>
       </c>
       <c r="J1">
         <f>D1+I1</f>
-        <v>30271</v>
+        <v>32645</v>
       </c>
       <c r="K1">
         <v>500000</v>
       </c>
       <c r="L1">
         <f>K1-C1</f>
-        <v>391682</v>
+        <v>380562</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1118,7 +1117,7 @@
         <v>697</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E22" si="0">C4+D4</f>
+        <f t="shared" ref="E4:E24" si="0">C4+D4</f>
         <v>6310</v>
       </c>
       <c r="F4">
@@ -1482,7 +1481,7 @@
         <v>6752</v>
       </c>
       <c r="F19">
-        <v>3.73</v>
+        <v>3.7</v>
       </c>
       <c r="G19">
         <v>8000</v>
@@ -1506,7 +1505,7 @@
         <v>6752</v>
       </c>
       <c r="F20">
-        <v>3.73</v>
+        <v>3.7</v>
       </c>
       <c r="G20">
         <v>8000</v>
@@ -1530,7 +1529,7 @@
         <v>6752</v>
       </c>
       <c r="F21">
-        <v>3.73</v>
+        <v>3.7</v>
       </c>
       <c r="G21">
         <v>8000</v>
@@ -1557,6 +1556,54 @@
         <v>3.65</v>
       </c>
       <c r="G22">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>42714</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>5494</v>
+      </c>
+      <c r="D23">
+        <v>1253</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>6747</v>
+      </c>
+      <c r="F23">
+        <v>3.65</v>
+      </c>
+      <c r="G23">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>42745</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>5626</v>
+      </c>
+      <c r="D24">
+        <v>1121</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>6747</v>
+      </c>
+      <c r="F24">
+        <v>3.65</v>
+      </c>
+      <c r="G24">
         <v>8000</v>
       </c>
     </row>
@@ -1570,8 +1617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D22" sqref="C22:D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1693,7 +1740,7 @@
         <v>3946</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E22" si="0">C4+D4</f>
+        <f t="shared" ref="E4:E26" si="0">C4+D4</f>
         <v>10068</v>
       </c>
       <c r="F4">
@@ -2145,8 +2192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2250,7 +2297,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1">
-        <v>42384</v>
+        <v>42019</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -2314,7 +2361,7 @@
         <v>15816</v>
       </c>
       <c r="F6">
-        <v>2.87</v>
+        <v>2.93</v>
       </c>
       <c r="G6">
         <v>16000</v>
@@ -2387,7 +2434,7 @@
         <v>15779</v>
       </c>
       <c r="F9">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="G9">
         <v>16000</v>
@@ -2462,7 +2509,7 @@
         <v>15738</v>
       </c>
       <c r="F12">
-        <v>2.69</v>
+        <v>2.77</v>
       </c>
       <c r="G12">
         <v>16000</v>
@@ -2548,8 +2595,8 @@
       <c r="A16" s="1">
         <v>42751</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>6</v>
+      <c r="B16" t="s">
+        <v>15</v>
       </c>
       <c r="C16">
         <v>13391</v>
@@ -2599,7 +2646,7 @@
         <v>42809</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C18">
         <v>13452</v>

--- a/交易紀錄/信用貸款.xlsx
+++ b/交易紀錄/信用貸款.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="28860" windowHeight="6165" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20730" windowHeight="6165" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="國泰" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="16">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -998,10 +998,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1012,33 +1012,33 @@
     <row r="1" spans="1:12">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>119438</v>
+        <v>130696</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>28115</v>
+        <v>30351</v>
       </c>
       <c r="G1">
         <f>SUBTOTAL(9,G3:G500)</f>
-        <v>176000</v>
+        <v>192000</v>
       </c>
       <c r="H1">
         <f>G1-C1-D1</f>
-        <v>28447</v>
+        <v>30953</v>
       </c>
       <c r="I1">
         <v>4530</v>
       </c>
       <c r="J1">
         <f>D1+I1</f>
-        <v>32645</v>
+        <v>34881</v>
       </c>
       <c r="K1">
         <v>500000</v>
       </c>
       <c r="L1">
         <f>K1-C1</f>
-        <v>380562</v>
+        <v>369304</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1117,7 +1117,7 @@
         <v>697</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E24" si="0">C4+D4</f>
+        <f t="shared" ref="E4:E26" si="0">C4+D4</f>
         <v>6310</v>
       </c>
       <c r="F4">
@@ -1604,6 +1604,54 @@
         <v>3.65</v>
       </c>
       <c r="G24">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>42776</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>5564</v>
+      </c>
+      <c r="D25">
+        <v>1183</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>6747</v>
+      </c>
+      <c r="F25">
+        <v>3.65</v>
+      </c>
+      <c r="G25">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>42804</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>5694</v>
+      </c>
+      <c r="D26">
+        <v>1053</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>6747</v>
+      </c>
+      <c r="F26">
+        <v>3.65</v>
+      </c>
+      <c r="G26">
         <v>8000</v>
       </c>
     </row>
@@ -1615,33 +1663,34 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="12" max="13" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>126489</v>
+        <v>133047</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>72276</v>
+        <v>75513</v>
       </c>
       <c r="G1">
         <f>SUBTOTAL(9,G3:G500)</f>
-        <v>240000</v>
+        <v>252000</v>
       </c>
       <c r="H1">
         <f>G1-C1-D1</f>
-        <v>41235</v>
+        <v>43440</v>
       </c>
       <c r="I1">
         <v>5060</v>
@@ -1651,14 +1700,14 @@
       </c>
       <c r="K1">
         <f>D1+I1+J1</f>
-        <v>82996</v>
+        <v>86233</v>
       </c>
       <c r="L1">
         <v>1900000</v>
       </c>
       <c r="M1">
         <f>L1-C1</f>
-        <v>1773511</v>
+        <v>1766953</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1740,7 +1789,7 @@
         <v>3946</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E26" si="0">C4+D4</f>
+        <f t="shared" ref="E4:E23" si="0">C4+D4</f>
         <v>10068</v>
       </c>
       <c r="F4">
@@ -2179,6 +2228,30 @@
         <v>2.19</v>
       </c>
       <c r="G22">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>6558</v>
+      </c>
+      <c r="D23">
+        <v>3237</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>9795</v>
+      </c>
+      <c r="F23">
+        <v>2.19</v>
+      </c>
+      <c r="G23">
         <v>12000</v>
       </c>
     </row>
@@ -2193,7 +2266,7 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2204,33 +2277,33 @@
     <row r="1" spans="1:13">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>210884</v>
+        <v>224366</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>41165</v>
+        <v>43382</v>
       </c>
       <c r="G1">
         <f>SUBTOTAL(9,G3:G500)</f>
-        <v>256000</v>
+        <v>272000</v>
       </c>
       <c r="H1">
         <f>G1-C1-D1</f>
-        <v>3951</v>
+        <v>4252</v>
       </c>
       <c r="I1">
         <v>2015</v>
       </c>
       <c r="J1">
         <f>D1+I1</f>
-        <v>43180</v>
+        <v>45397</v>
       </c>
       <c r="K1">
         <v>1200000</v>
       </c>
       <c r="L1">
         <f>K1-C1</f>
-        <v>989116</v>
+        <v>975634</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -2309,7 +2382,7 @@
         <v>2889</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E18" si="0">C4+D4</f>
+        <f t="shared" ref="E4:E19" si="0">C4+D4</f>
         <v>15816</v>
       </c>
       <c r="F4">
@@ -2667,6 +2740,28 @@
       <c r="M18" s="3"/>
     </row>
     <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>42840</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>13482</v>
+      </c>
+      <c r="D19">
+        <v>2217</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>15699</v>
+      </c>
+      <c r="F19">
+        <v>2.69</v>
+      </c>
+      <c r="G19">
+        <v>16000</v>
+      </c>
       <c r="M19" s="3"/>
     </row>
     <row r="20" spans="1:13">

--- a/交易紀錄/信用貸款.xlsx
+++ b/交易紀錄/信用貸款.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20730" windowHeight="6165" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20730" windowHeight="6165"/>
   </bookViews>
   <sheets>
     <sheet name="國泰" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="16">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -444,8 +444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -998,10 +998,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1012,33 +1012,33 @@
     <row r="1" spans="1:12">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>130696</v>
+        <v>136295</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>30351</v>
+        <v>31499</v>
       </c>
       <c r="G1">
         <f>SUBTOTAL(9,G3:G500)</f>
-        <v>192000</v>
+        <v>200000</v>
       </c>
       <c r="H1">
         <f>G1-C1-D1</f>
-        <v>30953</v>
+        <v>32206</v>
       </c>
       <c r="I1">
         <v>4530</v>
       </c>
       <c r="J1">
         <f>D1+I1</f>
-        <v>34881</v>
+        <v>36029</v>
       </c>
       <c r="K1">
         <v>500000</v>
       </c>
       <c r="L1">
         <f>K1-C1</f>
-        <v>369304</v>
+        <v>363705</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1117,7 +1117,7 @@
         <v>697</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E26" si="0">C4+D4</f>
+        <f t="shared" ref="E4:E27" si="0">C4+D4</f>
         <v>6310</v>
       </c>
       <c r="F4">
@@ -1652,6 +1652,30 @@
         <v>3.65</v>
       </c>
       <c r="G26">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>42835</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <v>5599</v>
+      </c>
+      <c r="D27">
+        <v>1148</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>6747</v>
+      </c>
+      <c r="F27">
+        <v>3.65</v>
+      </c>
+      <c r="G27">
         <v>8000</v>
       </c>
     </row>
@@ -1663,10 +1687,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1678,19 +1702,19 @@
     <row r="1" spans="1:13">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>133047</v>
+        <v>139617</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>75513</v>
+        <v>78738</v>
       </c>
       <c r="G1">
         <f>SUBTOTAL(9,G3:G500)</f>
-        <v>252000</v>
+        <v>264000</v>
       </c>
       <c r="H1">
         <f>G1-C1-D1</f>
-        <v>43440</v>
+        <v>45645</v>
       </c>
       <c r="I1">
         <v>5060</v>
@@ -1700,14 +1724,14 @@
       </c>
       <c r="K1">
         <f>D1+I1+J1</f>
-        <v>86233</v>
+        <v>89458</v>
       </c>
       <c r="L1">
         <v>1900000</v>
       </c>
       <c r="M1">
         <f>L1-C1</f>
-        <v>1766953</v>
+        <v>1760383</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1789,7 +1813,7 @@
         <v>3946</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E23" si="0">C4+D4</f>
+        <f t="shared" ref="E4:E24" si="0">C4+D4</f>
         <v>10068</v>
       </c>
       <c r="F4">
@@ -2252,6 +2276,30 @@
         <v>2.19</v>
       </c>
       <c r="G23">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>42858</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>6570</v>
+      </c>
+      <c r="D24">
+        <v>3225</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>9795</v>
+      </c>
+      <c r="F24">
+        <v>2.19</v>
+      </c>
+      <c r="G24">
         <v>12000</v>
       </c>
     </row>
@@ -2266,7 +2314,7 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2277,33 +2325,33 @@
     <row r="1" spans="1:13">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>224366</v>
+        <v>237878</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>43382</v>
+        <v>45569</v>
       </c>
       <c r="G1">
         <f>SUBTOTAL(9,G3:G500)</f>
-        <v>272000</v>
+        <v>288000</v>
       </c>
       <c r="H1">
         <f>G1-C1-D1</f>
-        <v>4252</v>
+        <v>4553</v>
       </c>
       <c r="I1">
         <v>2015</v>
       </c>
       <c r="J1">
         <f>D1+I1</f>
-        <v>45397</v>
+        <v>47584</v>
       </c>
       <c r="K1">
         <v>1200000</v>
       </c>
       <c r="L1">
         <f>K1-C1</f>
-        <v>975634</v>
+        <v>962122</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -2382,7 +2430,7 @@
         <v>2889</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E19" si="0">C4+D4</f>
+        <f t="shared" ref="E4:E20" si="0">C4+D4</f>
         <v>15816</v>
       </c>
       <c r="F4">
@@ -2765,6 +2813,28 @@
       <c r="M19" s="3"/>
     </row>
     <row r="20" spans="1:13">
+      <c r="A20" s="1">
+        <v>42870</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>13512</v>
+      </c>
+      <c r="D20">
+        <v>2187</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>15699</v>
+      </c>
+      <c r="F20">
+        <v>2.69</v>
+      </c>
+      <c r="G20">
+        <v>16000</v>
+      </c>
       <c r="M20" s="3"/>
     </row>
     <row r="21" spans="1:13">

--- a/交易紀錄/信用貸款.xlsx
+++ b/交易紀錄/信用貸款.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18067"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20730" windowHeight="6165"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="10950" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="國泰" sheetId="2" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="富邦" sheetId="6" r:id="rId4"/>
     <sheet name="遠東" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="16">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,11 +86,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -154,6 +154,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -200,7 +208,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -232,9 +240,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -266,6 +292,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -441,19 +485,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="2" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
         <v>650000</v>
@@ -485,7 +529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -523,7 +567,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>41986</v>
       </c>
@@ -547,7 +591,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>42017</v>
       </c>
@@ -571,7 +615,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>42048</v>
       </c>
@@ -595,7 +639,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>42076</v>
       </c>
@@ -619,7 +663,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>42107</v>
       </c>
@@ -643,7 +687,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>42137</v>
       </c>
@@ -667,7 +711,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>42170</v>
       </c>
@@ -691,7 +735,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>42186</v>
       </c>
@@ -720,19 +764,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="2" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
         <v>500000</v>
@@ -764,7 +808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -802,7 +846,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>41998</v>
       </c>
@@ -826,7 +870,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>42030</v>
       </c>
@@ -850,7 +894,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>42060</v>
       </c>
@@ -874,7 +918,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>42088</v>
       </c>
@@ -898,7 +942,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>42121</v>
       </c>
@@ -922,7 +966,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>42149</v>
       </c>
@@ -946,7 +990,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>42180</v>
       </c>
@@ -970,7 +1014,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>42185</v>
       </c>
@@ -997,51 +1041,51 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>136295</v>
+        <v>141948</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>31499</v>
+        <v>32593</v>
       </c>
       <c r="G1">
         <f>SUBTOTAL(9,G3:G500)</f>
-        <v>200000</v>
+        <v>208000</v>
       </c>
       <c r="H1">
         <f>G1-C1-D1</f>
-        <v>32206</v>
+        <v>33459</v>
       </c>
       <c r="I1">
         <v>4530</v>
       </c>
       <c r="J1">
         <f>D1+I1</f>
-        <v>36029</v>
+        <v>37123</v>
       </c>
       <c r="K1">
         <v>500000</v>
       </c>
       <c r="L1">
         <f>K1-C1</f>
-        <v>363705</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>358052</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1079,7 +1123,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>42104</v>
       </c>
@@ -1103,7 +1147,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>42134</v>
       </c>
@@ -1117,7 +1161,7 @@
         <v>697</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E27" si="0">C4+D4</f>
+        <f t="shared" ref="E4:E28" si="0">C4+D4</f>
         <v>6310</v>
       </c>
       <c r="F4">
@@ -1127,7 +1171,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>42165</v>
       </c>
@@ -1151,7 +1195,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>42195</v>
       </c>
@@ -1175,7 +1219,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>42226</v>
       </c>
@@ -1199,7 +1243,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>42257</v>
       </c>
@@ -1223,7 +1267,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>42287</v>
       </c>
@@ -1247,7 +1291,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>42318</v>
       </c>
@@ -1271,7 +1315,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>42348</v>
       </c>
@@ -1295,7 +1339,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>42379</v>
       </c>
@@ -1319,7 +1363,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>42410</v>
       </c>
@@ -1343,7 +1387,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>42439</v>
       </c>
@@ -1367,7 +1411,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>42470</v>
       </c>
@@ -1391,7 +1435,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>42500</v>
       </c>
@@ -1415,7 +1459,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>42531</v>
       </c>
@@ -1439,7 +1483,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>42561</v>
       </c>
@@ -1463,7 +1507,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>42592</v>
       </c>
@@ -1487,7 +1531,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>42623</v>
       </c>
@@ -1511,7 +1555,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>42653</v>
       </c>
@@ -1535,7 +1579,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>42684</v>
       </c>
@@ -1559,7 +1603,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>42714</v>
       </c>
@@ -1583,7 +1627,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>42745</v>
       </c>
@@ -1607,7 +1651,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>42776</v>
       </c>
@@ -1631,7 +1675,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>42804</v>
       </c>
@@ -1655,7 +1699,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>42835</v>
       </c>
@@ -1676,6 +1720,30 @@
         <v>3.65</v>
       </c>
       <c r="G27">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A28" s="1">
+        <v>42865</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <v>5653</v>
+      </c>
+      <c r="D28">
+        <v>1094</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>6747</v>
+      </c>
+      <c r="F28">
+        <v>3.65</v>
+      </c>
+      <c r="G28">
         <v>8000</v>
       </c>
     </row>
@@ -1686,35 +1754,35 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="12" max="13" width="10.125" customWidth="1"/>
+    <col min="12" max="13" width="10.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>139617</v>
+        <v>146199</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>78738</v>
+        <v>81951</v>
       </c>
       <c r="G1">
         <f>SUBTOTAL(9,G3:G500)</f>
-        <v>264000</v>
+        <v>276000</v>
       </c>
       <c r="H1">
         <f>G1-C1-D1</f>
-        <v>45645</v>
+        <v>47850</v>
       </c>
       <c r="I1">
         <v>5060</v>
@@ -1724,17 +1792,17 @@
       </c>
       <c r="K1">
         <f>D1+I1+J1</f>
-        <v>89458</v>
+        <v>92671</v>
       </c>
       <c r="L1">
         <v>1900000</v>
       </c>
       <c r="M1">
         <f>L1-C1</f>
-        <v>1760383</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+        <v>1753801</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1775,7 +1843,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>42216</v>
       </c>
@@ -1799,7 +1867,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>42248</v>
       </c>
@@ -1813,7 +1881,7 @@
         <v>3946</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E24" si="0">C4+D4</f>
+        <f t="shared" ref="E4:E25" si="0">C4+D4</f>
         <v>10068</v>
       </c>
       <c r="F4">
@@ -1823,7 +1891,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>42278</v>
       </c>
@@ -1847,7 +1915,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>42310</v>
       </c>
@@ -1871,7 +1939,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>42339</v>
       </c>
@@ -1895,7 +1963,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>42369</v>
       </c>
@@ -1919,7 +1987,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>42401</v>
       </c>
@@ -1943,7 +2011,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>42431</v>
       </c>
@@ -1967,7 +2035,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>42460</v>
       </c>
@@ -1991,7 +2059,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>42494</v>
       </c>
@@ -2015,7 +2083,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>42521</v>
       </c>
@@ -2039,7 +2107,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>42552</v>
       </c>
@@ -2063,7 +2131,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>42584</v>
       </c>
@@ -2087,7 +2155,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>42613</v>
       </c>
@@ -2111,7 +2179,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>42646</v>
       </c>
@@ -2135,7 +2203,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>42675</v>
       </c>
@@ -2159,7 +2227,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>42705</v>
       </c>
@@ -2183,7 +2251,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>42738</v>
       </c>
@@ -2207,7 +2275,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>42769</v>
       </c>
@@ -2231,7 +2299,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>42796</v>
       </c>
@@ -2255,7 +2323,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>42825</v>
       </c>
@@ -2279,7 +2347,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>42858</v>
       </c>
@@ -2300,6 +2368,30 @@
         <v>2.19</v>
       </c>
       <c r="G24">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A25" s="1">
+        <v>42887</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>6582</v>
+      </c>
+      <c r="D25">
+        <v>3213</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>9795</v>
+      </c>
+      <c r="F25">
+        <v>2.19</v>
+      </c>
+      <c r="G25">
         <v>12000</v>
       </c>
     </row>
@@ -2310,51 +2402,51 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>237878</v>
+        <v>251420</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>45569</v>
+        <v>47726</v>
       </c>
       <c r="G1">
         <f>SUBTOTAL(9,G3:G500)</f>
-        <v>288000</v>
+        <v>304000</v>
       </c>
       <c r="H1">
         <f>G1-C1-D1</f>
-        <v>4553</v>
+        <v>4854</v>
       </c>
       <c r="I1">
         <v>2015</v>
       </c>
       <c r="J1">
         <f>D1+I1</f>
-        <v>47584</v>
+        <v>49741</v>
       </c>
       <c r="K1">
         <v>1200000</v>
       </c>
       <c r="L1">
         <f>K1-C1</f>
-        <v>962122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+        <v>948580</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2392,7 +2484,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>42353</v>
       </c>
@@ -2416,7 +2508,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>42019</v>
       </c>
@@ -2430,7 +2522,7 @@
         <v>2889</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E20" si="0">C4+D4</f>
+        <f t="shared" ref="E4:E21" si="0">C4+D4</f>
         <v>15816</v>
       </c>
       <c r="F4">
@@ -2440,7 +2532,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>42415</v>
       </c>
@@ -2464,7 +2556,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>42444</v>
       </c>
@@ -2488,7 +2580,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>42475</v>
       </c>
@@ -2512,7 +2604,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>42505</v>
       </c>
@@ -2537,7 +2629,7 @@
       </c>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>42536</v>
       </c>
@@ -2562,7 +2654,7 @@
       </c>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>42566</v>
       </c>
@@ -2587,7 +2679,7 @@
       </c>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>42597</v>
       </c>
@@ -2612,7 +2704,7 @@
       </c>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>42628</v>
       </c>
@@ -2637,7 +2729,7 @@
       </c>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>42658</v>
       </c>
@@ -2662,7 +2754,7 @@
       </c>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>42689</v>
       </c>
@@ -2687,7 +2779,7 @@
       </c>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>42719</v>
       </c>
@@ -2712,7 +2804,7 @@
       </c>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>42751</v>
       </c>
@@ -2737,7 +2829,7 @@
       </c>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>42781</v>
       </c>
@@ -2762,7 +2854,7 @@
       </c>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>42809</v>
       </c>
@@ -2787,7 +2879,7 @@
       </c>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>42840</v>
       </c>
@@ -2812,7 +2904,7 @@
       </c>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>42870</v>
       </c>
@@ -2837,35 +2929,58 @@
       </c>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A21" s="1">
+        <v>42901</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>13542</v>
+      </c>
+      <c r="D21">
+        <v>2157</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>15699</v>
+      </c>
+      <c r="F21">
+        <v>2.69</v>
+      </c>
+      <c r="G21">
+        <v>16000</v>
+      </c>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M29" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/交易紀錄/信用貸款.xlsx
+++ b/交易紀錄/信用貸款.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18067"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="10950" activeTab="4"/>
@@ -13,12 +13,12 @@
     <sheet name="富邦" sheetId="6" r:id="rId4"/>
     <sheet name="遠東" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="17">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,15 +82,19 @@
   <si>
     <t>每月繳款</t>
   </si>
+  <si>
+    <t>每月繳款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -208,7 +212,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -240,27 +244,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -292,24 +278,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -485,19 +453,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="2" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
         <v>650000</v>
@@ -529,7 +497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -567,7 +535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>41986</v>
       </c>
@@ -591,7 +559,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>42017</v>
       </c>
@@ -615,7 +583,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>42048</v>
       </c>
@@ -639,7 +607,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>42076</v>
       </c>
@@ -663,7 +631,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>42107</v>
       </c>
@@ -687,7 +655,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>42137</v>
       </c>
@@ -711,7 +679,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>42170</v>
       </c>
@@ -735,7 +703,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>42186</v>
       </c>
@@ -764,19 +732,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="2" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
         <v>500000</v>
@@ -808,7 +776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -846,7 +814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>41998</v>
       </c>
@@ -870,7 +838,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>42030</v>
       </c>
@@ -894,7 +862,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>42060</v>
       </c>
@@ -918,7 +886,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>42088</v>
       </c>
@@ -942,7 +910,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>42121</v>
       </c>
@@ -966,7 +934,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>42149</v>
       </c>
@@ -990,7 +958,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>42180</v>
       </c>
@@ -1014,7 +982,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>42185</v>
       </c>
@@ -1041,51 +1009,51 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="A29" sqref="A3:A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>141948</v>
+        <v>147511</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>32593</v>
+        <v>33777</v>
       </c>
       <c r="G1">
         <f>SUBTOTAL(9,G3:G500)</f>
-        <v>208000</v>
+        <v>216000</v>
       </c>
       <c r="H1">
         <f>G1-C1-D1</f>
-        <v>33459</v>
+        <v>34712</v>
       </c>
       <c r="I1">
         <v>4530</v>
       </c>
       <c r="J1">
         <f>D1+I1</f>
-        <v>37123</v>
+        <v>38307</v>
       </c>
       <c r="K1">
         <v>500000</v>
       </c>
       <c r="L1">
         <f>K1-C1</f>
-        <v>358052</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+        <v>352489</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1123,7 +1091,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>42104</v>
       </c>
@@ -1147,7 +1115,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>42134</v>
       </c>
@@ -1161,7 +1129,7 @@
         <v>697</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E28" si="0">C4+D4</f>
+        <f t="shared" ref="E4:E29" si="0">C4+D4</f>
         <v>6310</v>
       </c>
       <c r="F4">
@@ -1171,7 +1139,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>42165</v>
       </c>
@@ -1195,7 +1163,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>42195</v>
       </c>
@@ -1219,7 +1187,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>42226</v>
       </c>
@@ -1243,7 +1211,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>42257</v>
       </c>
@@ -1267,7 +1235,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>42287</v>
       </c>
@@ -1291,7 +1259,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>42318</v>
       </c>
@@ -1315,7 +1283,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>42348</v>
       </c>
@@ -1339,7 +1307,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>42379</v>
       </c>
@@ -1363,7 +1331,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>42410</v>
       </c>
@@ -1387,7 +1355,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>42439</v>
       </c>
@@ -1411,7 +1379,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>42470</v>
       </c>
@@ -1435,7 +1403,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>42500</v>
       </c>
@@ -1459,7 +1427,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>42531</v>
       </c>
@@ -1483,7 +1451,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>42561</v>
       </c>
@@ -1507,7 +1475,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>42592</v>
       </c>
@@ -1531,7 +1499,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>42623</v>
       </c>
@@ -1555,7 +1523,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>42653</v>
       </c>
@@ -1579,7 +1547,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>42684</v>
       </c>
@@ -1603,7 +1571,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>42714</v>
       </c>
@@ -1627,7 +1595,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>42745</v>
       </c>
@@ -1651,7 +1619,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>42776</v>
       </c>
@@ -1675,7 +1643,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>42804</v>
       </c>
@@ -1699,7 +1667,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>42835</v>
       </c>
@@ -1723,12 +1691,12 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>42865</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C28">
         <v>5653</v>
@@ -1744,6 +1712,30 @@
         <v>3.65</v>
       </c>
       <c r="G28">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>42896</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29">
+        <v>5563</v>
+      </c>
+      <c r="D29">
+        <v>1184</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>6747</v>
+      </c>
+      <c r="F29">
+        <v>3.65</v>
+      </c>
+      <c r="G29">
         <v>8000</v>
       </c>
     </row>
@@ -1754,35 +1746,35 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="12" max="13" width="10.1328125" customWidth="1"/>
+    <col min="12" max="13" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>146199</v>
+        <v>152793</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>81951</v>
+        <v>85152</v>
       </c>
       <c r="G1">
         <f>SUBTOTAL(9,G3:G500)</f>
-        <v>276000</v>
+        <v>288000</v>
       </c>
       <c r="H1">
         <f>G1-C1-D1</f>
-        <v>47850</v>
+        <v>50055</v>
       </c>
       <c r="I1">
         <v>5060</v>
@@ -1792,17 +1784,17 @@
       </c>
       <c r="K1">
         <f>D1+I1+J1</f>
-        <v>92671</v>
+        <v>95872</v>
       </c>
       <c r="L1">
         <v>1900000</v>
       </c>
       <c r="M1">
         <f>L1-C1</f>
-        <v>1753801</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+        <v>1747207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1843,7 +1835,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>42216</v>
       </c>
@@ -1867,7 +1859,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>42248</v>
       </c>
@@ -1881,7 +1873,7 @@
         <v>3946</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E25" si="0">C4+D4</f>
+        <f t="shared" ref="E4:E26" si="0">C4+D4</f>
         <v>10068</v>
       </c>
       <c r="F4">
@@ -1891,7 +1883,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>42278</v>
       </c>
@@ -1915,7 +1907,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>42310</v>
       </c>
@@ -1939,7 +1931,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>42339</v>
       </c>
@@ -1963,7 +1955,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>42369</v>
       </c>
@@ -1987,7 +1979,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>42401</v>
       </c>
@@ -2011,7 +2003,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>42431</v>
       </c>
@@ -2035,7 +2027,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>42460</v>
       </c>
@@ -2059,7 +2051,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>42494</v>
       </c>
@@ -2083,7 +2075,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>42521</v>
       </c>
@@ -2107,7 +2099,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>42552</v>
       </c>
@@ -2131,7 +2123,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>42584</v>
       </c>
@@ -2155,7 +2147,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>42613</v>
       </c>
@@ -2179,7 +2171,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>42646</v>
       </c>
@@ -2203,7 +2195,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>42675</v>
       </c>
@@ -2227,7 +2219,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>42705</v>
       </c>
@@ -2251,7 +2243,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>42738</v>
       </c>
@@ -2275,7 +2267,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>42769</v>
       </c>
@@ -2299,7 +2291,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>42796</v>
       </c>
@@ -2323,7 +2315,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>42825</v>
       </c>
@@ -2347,7 +2339,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>42858</v>
       </c>
@@ -2371,12 +2363,12 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>42887</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C25">
         <v>6582</v>
@@ -2392,6 +2384,30 @@
         <v>2.19</v>
       </c>
       <c r="G25">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>42919</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26">
+        <v>6594</v>
+      </c>
+      <c r="D26">
+        <v>3201</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>9795</v>
+      </c>
+      <c r="F26">
+        <v>2.19</v>
+      </c>
+      <c r="G26">
         <v>12000</v>
       </c>
     </row>
@@ -2402,51 +2418,51 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>251420</v>
+        <v>264993</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>47726</v>
+        <v>49852</v>
       </c>
       <c r="G1">
         <f>SUBTOTAL(9,G3:G500)</f>
-        <v>304000</v>
+        <v>320000</v>
       </c>
       <c r="H1">
         <f>G1-C1-D1</f>
-        <v>4854</v>
+        <v>5155</v>
       </c>
       <c r="I1">
         <v>2015</v>
       </c>
       <c r="J1">
         <f>D1+I1</f>
-        <v>49741</v>
+        <v>51867</v>
       </c>
       <c r="K1">
         <v>1200000</v>
       </c>
       <c r="L1">
         <f>K1-C1</f>
-        <v>948580</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+        <v>935007</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2484,7 +2500,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>42353</v>
       </c>
@@ -2508,7 +2524,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>42019</v>
       </c>
@@ -2522,7 +2538,7 @@
         <v>2889</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E21" si="0">C4+D4</f>
+        <f t="shared" ref="E4:E22" si="0">C4+D4</f>
         <v>15816</v>
       </c>
       <c r="F4">
@@ -2532,7 +2548,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>42415</v>
       </c>
@@ -2556,7 +2572,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>42444</v>
       </c>
@@ -2580,7 +2596,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>42475</v>
       </c>
@@ -2604,7 +2620,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>42505</v>
       </c>
@@ -2629,7 +2645,7 @@
       </c>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>42536</v>
       </c>
@@ -2654,7 +2670,7 @@
       </c>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>42566</v>
       </c>
@@ -2679,7 +2695,7 @@
       </c>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>42597</v>
       </c>
@@ -2704,7 +2720,7 @@
       </c>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>42628</v>
       </c>
@@ -2729,7 +2745,7 @@
       </c>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>42658</v>
       </c>
@@ -2754,7 +2770,7 @@
       </c>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>42689</v>
       </c>
@@ -2779,7 +2795,7 @@
       </c>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>42719</v>
       </c>
@@ -2804,7 +2820,7 @@
       </c>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>42751</v>
       </c>
@@ -2829,7 +2845,7 @@
       </c>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>42781</v>
       </c>
@@ -2854,7 +2870,7 @@
       </c>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>42809</v>
       </c>
@@ -2879,7 +2895,7 @@
       </c>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>42840</v>
       </c>
@@ -2904,7 +2920,7 @@
       </c>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>42870</v>
       </c>
@@ -2929,7 +2945,7 @@
       </c>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>42901</v>
       </c>
@@ -2954,28 +2970,50 @@
       </c>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13">
+      <c r="A22" s="1">
+        <v>42931</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>13573</v>
+      </c>
+      <c r="D22">
+        <v>2126</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>15699</v>
+      </c>
+      <c r="F22">
+        <v>2.69</v>
+      </c>
+      <c r="G22">
+        <v>16000</v>
+      </c>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13">
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13">
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13">
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13">
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13">
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13">
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13">
       <c r="M29" s="3"/>
     </row>
   </sheetData>
